--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Documents\GitHub\SecurityConfigurableStorage_SPLC22\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmay/Documents/GitHub/SecurityConfigurableStorage_SPLC22/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C45924-D665-5F4C-9021-3E27EF7A89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28503" windowHeight="12158"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">analysis!$A$1:$AF$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="399">
   <si>
     <t>title</t>
   </si>
@@ -1222,12 +1235,30 @@
   <si>
     <t>code, features, user data</t>
   </si>
+  <si>
+    <t>Variability Management in Infrastructure as a Service: Scenarios in Cloud Deployment Models</t>
+  </si>
+  <si>
+    <t>Khan, Ateeq , Johannes Hintsch, Gunter Saake, and Klaus Turowski</t>
+  </si>
+  <si>
+    <t>privacy, communication</t>
+  </si>
+  <si>
+    <t>Puppet</t>
+  </si>
+  <si>
+    <t>SaaS as IaaS</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1392,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1728,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1739,6 +1782,8 @@
     <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2059,27 +2104,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2168,7 +2213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -2260,7 +2305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2349,7 +2394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2441,7 +2486,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2533,7 +2578,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2625,7 +2670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2722,7 +2767,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2814,7 +2859,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2903,7 +2948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -3000,7 +3045,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3092,7 +3137,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3184,7 +3229,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -3278,7 +3323,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3367,7 +3412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3459,7 +3504,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3554,7 +3599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3649,7 +3694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3744,7 +3789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3833,7 +3878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3922,7 +3967,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4011,7 +4056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -4100,7 +4145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -4192,7 +4237,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -4284,7 +4329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4373,7 +4418,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -4466,7 +4511,7 @@
       </c>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -4555,7 +4600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -4644,7 +4689,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -4733,7 +4778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4822,7 +4867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -4914,7 +4959,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -5003,7 +5048,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -5098,7 +5143,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -5187,7 +5232,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -5279,7 +5324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -5371,7 +5416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -5463,7 +5508,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -5555,7 +5600,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -5647,18 +5692,18 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>110</v>
+      <c r="B40" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>393</v>
       </c>
       <c r="D40">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E40" t="s">
         <v>159</v>
@@ -5673,28 +5718,28 @@
         <v>76</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="K40" t="s">
+        <v>225</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="M40" t="s">
+        <v>157</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>133</v>
+      <c r="O40" t="s">
+        <v>398</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q40" s="5" t="s">
         <v>133</v>
@@ -5703,7 +5748,7 @@
         <v>135</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>133</v>
@@ -5712,39 +5757,42 @@
         <v>133</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="X40" t="s">
+        <v>395</v>
+      </c>
+      <c r="X40" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="Y40" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>172</v>
+      <c r="Y40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="AA40" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC40" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="AC40" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD40" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D41">
         <v>2018</v>
@@ -5774,161 +5822,158 @@
         <v>138</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>145</v>
+        <v>180</v>
+      </c>
+      <c r="N41" t="s">
+        <v>165</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>133</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T41" s="5" t="s">
         <v>133</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V41" t="s">
-        <v>195</v>
+        <v>133</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="X41" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y41" t="s">
         <v>147</v>
       </c>
-      <c r="Z41" s="5" t="s">
-        <v>161</v>
+      <c r="Z41" t="s">
+        <v>172</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC41" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AD41" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>40</v>
+      <c r="B42" t="s">
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E42" t="s">
         <v>159</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
-      </c>
-      <c r="G42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" t="s">
-        <v>133</v>
-      </c>
-      <c r="K42" t="s">
-        <v>155</v>
-      </c>
-      <c r="L42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M42" t="s">
-        <v>157</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O42" t="s">
-        <v>133</v>
-      </c>
-      <c r="P42" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" t="s">
-        <v>76</v>
-      </c>
-      <c r="S42" t="s">
-        <v>76</v>
-      </c>
-      <c r="T42" t="s">
-        <v>135</v>
-      </c>
-      <c r="U42" t="s">
-        <v>133</v>
+      <c r="M42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="V42" t="s">
-        <v>146</v>
-      </c>
-      <c r="W42" t="s">
-        <v>183</v>
-      </c>
-      <c r="X42" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>54</v>
+      <c r="B43" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>2019</v>
@@ -5937,105 +5982,105 @@
         <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L43" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>135</v>
+      <c r="M43" t="s">
+        <v>157</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O43" t="s">
+        <v>133</v>
+      </c>
+      <c r="P43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>135</v>
+      </c>
+      <c r="U43" t="s">
+        <v>133</v>
       </c>
       <c r="V43" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="W43" t="s">
-        <v>228</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD43" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="X43" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>84</v>
+      <c r="B44" t="s">
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>2019</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>133</v>
@@ -6049,26 +6094,26 @@
       <c r="L44" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M44" t="s">
-        <v>276</v>
+      <c r="M44" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="O44" t="s">
-        <v>275</v>
+      <c r="O44" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>133</v>
@@ -6077,51 +6122,51 @@
         <v>135</v>
       </c>
       <c r="V44" t="s">
-        <v>246</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>277</v>
+        <v>195</v>
+      </c>
+      <c r="W44" t="s">
+        <v>228</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="Y44" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Z44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA44" s="6" t="s">
+      <c r="Z44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA44" s="5" t="s">
         <v>219</v>
       </c>
       <c r="AB44" s="5" t="s">
         <v>133</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="AD44" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B45" t="s">
-        <v>301</v>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="D45">
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>76</v>
@@ -6135,233 +6180,236 @@
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K45" t="s">
-        <v>141</v>
+      <c r="K45" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M45" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="T45" s="5" t="s">
         <v>133</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V45" t="s">
         <v>246</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>361</v>
+        <v>277</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="Y45" s="5" t="s">
         <v>147</v>
       </c>
       <c r="Z45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD45" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46">
+        <v>2019</v>
+      </c>
+      <c r="E46" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M46" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V46" t="s">
+        <v>246</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z46" t="s">
         <v>264</v>
       </c>
-      <c r="AA45" s="5" t="s">
+      <c r="AA46" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AB45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC45" s="5" t="s">
+      <c r="AB46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AD45" s="5" t="s">
+      <c r="AD46" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AE45" s="8" t="s">
+      <c r="AE46" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>33</v>
-      </c>
-      <c r="D46">
-        <v>2020</v>
-      </c>
-      <c r="E46" t="s">
-        <v>324</v>
-      </c>
-      <c r="F46" t="s">
-        <v>324</v>
-      </c>
-      <c r="G46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s">
-        <v>155</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M46" t="s">
-        <v>163</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O46" t="s">
-        <v>133</v>
-      </c>
-      <c r="P46" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>133</v>
-      </c>
-      <c r="R46" t="s">
-        <v>135</v>
-      </c>
-      <c r="S46" t="s">
-        <v>135</v>
-      </c>
-      <c r="T46" t="s">
-        <v>133</v>
-      </c>
-      <c r="U46" t="s">
-        <v>133</v>
-      </c>
-      <c r="V46" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="W46" t="s">
-        <v>363</v>
-      </c>
-      <c r="X46" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
       </c>
       <c r="D47">
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L47" t="s">
-        <v>133</v>
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="M47" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="O47" t="s">
         <v>133</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y47" s="5" t="s">
+      <c r="P47" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>133</v>
+      </c>
+      <c r="R47" t="s">
+        <v>135</v>
+      </c>
+      <c r="S47" t="s">
+        <v>135</v>
+      </c>
+      <c r="T47" t="s">
+        <v>133</v>
+      </c>
+      <c r="U47" t="s">
+        <v>133</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="W47" t="s">
+        <v>363</v>
+      </c>
+      <c r="X47" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y47" t="s">
         <v>147</v>
       </c>
       <c r="Z47" t="s">
@@ -6370,40 +6418,37 @@
       <c r="AA47" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AB47" s="5" t="s">
+      <c r="AB47" t="s">
         <v>135</v>
       </c>
       <c r="AC47" t="s">
         <v>162</v>
       </c>
-      <c r="AD47" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="D48">
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>133</v>
@@ -6411,26 +6456,26 @@
       <c r="J48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>138</v>
+      <c r="K48" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L48" t="s">
+        <v>133</v>
       </c>
       <c r="M48" t="s">
-        <v>313</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="O48" t="s">
         <v>133</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="R48" s="5" t="s">
         <v>135</v>
@@ -6442,51 +6487,51 @@
         <v>135</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V48" t="s">
-        <v>246</v>
+        <v>133</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>317</v>
+        <v>133</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="Y48" s="5" t="s">
         <v>147</v>
       </c>
       <c r="Z48" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AB48" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC48" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD48" s="8" t="s">
-        <v>290</v>
+        <v>162</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>280</v>
       </c>
       <c r="AF48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>10</v>
+      <c r="B49" t="s">
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="D49">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E49" t="s">
         <v>214</v>
@@ -6506,20 +6551,20 @@
       <c r="J49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" t="s">
         <v>141</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M49" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>165</v>
       </c>
       <c r="O49" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>76</v>
@@ -6528,72 +6573,69 @@
         <v>76</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>135</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V49" s="6" t="s">
-        <v>232</v>
+        <v>135</v>
+      </c>
+      <c r="V49" t="s">
+        <v>246</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Z49" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA49" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA49" s="5" t="s">
         <v>219</v>
       </c>
       <c r="AB49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AC49" s="5" t="s">
-        <v>311</v>
+      <c r="AC49" t="s">
+        <v>314</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE49" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s">
-        <v>60</v>
+      <c r="B50" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>2021</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>133</v>
@@ -6601,68 +6643,163 @@
       <c r="J50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K50" t="s">
-        <v>209</v>
+      <c r="K50" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>165</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="V50" s="6" t="s">
         <v>232</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>133</v>
+        <v>292</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="Y50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE50" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>2021</v>
+      </c>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s">
+        <v>209</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" t="s">
+        <v>252</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Z51" t="s">
         <v>161</v>
       </c>
-      <c r="AA50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD50" s="5" t="s">
+      <c r="AA51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD51" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>337</v>
       </c>
@@ -6697,7 +6834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -6717,14 +6854,14 @@
       </c>
       <c r="H54">
         <f>COUNTIF($G$2:$G$51,"-")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J54" t="s">
         <v>339</v>
       </c>
       <c r="K54">
         <f>COUNTIF($K$2:$K$51,"*cloud*")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
         <v>384</v>
@@ -6738,7 +6875,7 @@
       </c>
       <c r="Q54">
         <f>COUNTIF($P$2:$P$51,"-")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S54" t="s">
         <v>133</v>
@@ -6759,7 +6896,7 @@
       </c>
       <c r="Z54">
         <f>COUNTIF($X$2:$X$51,"*encryption*")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB54" t="s">
         <v>147</v>
@@ -6773,10 +6910,10 @@
       </c>
       <c r="AF54">
         <f>COUNTIF($AB$2:$AB$51,"-")</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -6803,7 +6940,7 @@
       </c>
       <c r="K55">
         <f>COUNTIF($K$2:$K$51,"*database*")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M55" t="s">
         <v>385</v>
@@ -6823,7 +6960,7 @@
       </c>
       <c r="T55">
         <f>COUNTIF($S$2:$S$51,"+")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V55" t="s">
         <v>206</v>
@@ -6854,7 +6991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -6881,7 +7018,7 @@
       </c>
       <c r="K56">
         <f>COUNTIF($K$2:$K$51,"*SaaS*")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M56" t="s">
         <v>180</v>
@@ -6923,7 +7060,7 @@
       </c>
       <c r="AC56">
         <f>COUNTIF($Y$2:$Y$51,"*software, storage*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE56" t="s">
         <v>76</v>
@@ -6933,7 +7070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -6953,7 +7090,7 @@
       </c>
       <c r="K57">
         <f>COUNTIF($K$2:$K$51,"*cloud, database*")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M57" t="s">
         <v>271</v>
@@ -6967,7 +7104,7 @@
       </c>
       <c r="W57">
         <f>COUNTIF($V$2:$V$51,"*system requirement*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y57" t="s">
         <v>366</v>
@@ -6977,13 +7114,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2017</v>
       </c>
       <c r="B58">
         <f>COUNTIF($D$2:$D$51,"2017")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>214</v>
@@ -7036,7 +7173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -7049,7 +7186,7 @@
       </c>
       <c r="E59">
         <f>COUNTIF($E$2:$E$51,"*unspecificed*")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
         <v>133</v>
@@ -7063,7 +7200,7 @@
       </c>
       <c r="K59">
         <f>COUNTIF($K$2:$K$51,"*cloud, database, SaaS*")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M59" t="s">
         <v>387</v>
@@ -7076,14 +7213,14 @@
       </c>
       <c r="Q59">
         <f>COUNTIF($Q$2:$Q$51,"-")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S59" t="s">
         <v>133</v>
       </c>
       <c r="T59">
         <f>COUNTIF($T$2:$T$51,"-")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>249</v>
@@ -7117,7 +7254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -7188,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -7201,7 +7338,7 @@
       </c>
       <c r="H61">
         <f>COUNTIF($H$2:$H$51,"x")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>124</v>
@@ -7249,7 +7386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -7262,7 +7399,7 @@
       </c>
       <c r="K62">
         <f>COUNTIF($L$2:$L$51,"*centralized*")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M62" t="s">
         <v>389</v>
@@ -7286,7 +7423,7 @@
       </c>
       <c r="AC62">
         <f>COUNTIF($Z$2:$Z$51,"*mapping, solution-space*")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE62" t="s">
         <v>383</v>
@@ -7295,7 +7432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="G63" s="1" t="s">
         <v>338</v>
       </c>
@@ -7322,7 +7459,7 @@
       </c>
       <c r="W63">
         <f>COUNTIF($W$2:$W$51,"*privacy*")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y63" s="5" t="s">
         <v>376</v>
@@ -7341,10 +7478,10 @@
         <v>335</v>
       </c>
       <c r="AF63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>133</v>
       </c>
@@ -7377,7 +7514,7 @@
       </c>
       <c r="T64">
         <f>COUNTIF($U$2:$U$51,"-")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V64" t="s">
         <v>353</v>
@@ -7394,7 +7531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="G65" t="s">
         <v>135</v>
       </c>
@@ -7414,14 +7551,14 @@
       </c>
       <c r="N65">
         <f>COUNTIF($M$2:$M$51,"*unspecified*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P65" t="s">
         <v>135</v>
       </c>
       <c r="Q65">
         <f>COUNTIF($R$2:$R$51,"+")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S65" t="s">
         <v>135</v>
@@ -7435,7 +7572,7 @@
       </c>
       <c r="W65">
         <f>COUNTIF($W$2:$W$51,"*communication*")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y65" t="s">
         <v>370</v>
@@ -7445,13 +7582,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>76</v>
       </c>
       <c r="H66">
         <f>COUNTIF($I$2:$I$51,"x")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P66" t="s">
         <v>76</v>
@@ -7489,7 +7626,7 @@
       <c r="AL66"/>
       <c r="AM66"/>
     </row>
-    <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M67" s="1" t="s">
         <v>346</v>
       </c>
@@ -7519,7 +7656,7 @@
       <c r="AL67"/>
       <c r="AM67"/>
     </row>
-    <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G68" s="1" t="s">
         <v>131</v>
       </c>
@@ -7529,7 +7666,7 @@
       </c>
       <c r="N68">
         <f>COUNTIF($N$2:$N$51,"*system*")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>355</v>
@@ -7553,20 +7690,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
         <v>133</v>
       </c>
       <c r="H69">
         <f>COUNTIF($J$2:$J$51,"-")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M69" t="s">
         <v>165</v>
       </c>
       <c r="N69">
         <f>COUNTIF($N$2:$N$51,"*system, user*")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>356</v>
@@ -7590,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>135</v>
       </c>
@@ -7603,7 +7740,7 @@
       </c>
       <c r="N70">
         <f>COUNTIF($N$2:$N$51,"*user*")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>357</v>
@@ -7620,7 +7757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>76</v>
       </c>
@@ -7646,10 +7783,10 @@
       </c>
       <c r="AC71">
         <f>COUNTIF($AA$2:$AA$51,"-")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="V72" s="5" t="s">
         <v>359</v>
       </c>
@@ -7664,7 +7801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M73" s="1" t="s">
         <v>64</v>
       </c>
@@ -7677,7 +7814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M74" t="s">
         <v>348</v>
       </c>
@@ -7692,7 +7829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="M75" t="s">
         <v>349</v>
       </c>
@@ -7700,19 +7837,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
       <c r="AO76" s="5"/>
       <c r="AP76" s="5"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AM77" s="5"/>
       <c r="AN77" s="5"/>
       <c r="AO77" s="5"/>
       <c r="AP77" s="5"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
@@ -7723,18 +7860,18 @@
       <c r="AO78" s="5"/>
       <c r="AP78" s="5"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>122</v>
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="AK80" s="5"/>
       <c r="AL80" s="5"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -7742,7 +7879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -7750,7 +7887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -7758,7 +7895,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -7813,7 +7950,7 @@
       <c r="AJ84" s="2"/>
       <c r="AM84" s="5"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
@@ -7864,7 +8001,7 @@
       <c r="AJ85" s="2"/>
       <c r="AM85" s="5"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -7912,7 +8049,7 @@
       <c r="AK86" s="5"/>
       <c r="AL86" s="5"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
@@ -7962,7 +8099,7 @@
       <c r="AK87" s="5"/>
       <c r="AL87" s="5"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>76</v>
       </c>
@@ -8038,7 +8175,7 @@
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
@@ -8086,7 +8223,7 @@
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>76</v>
       </c>
@@ -8132,7 +8269,7 @@
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>76</v>
       </c>
@@ -8180,7 +8317,7 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>76</v>
       </c>
@@ -8228,7 +8365,7 @@
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>76</v>
       </c>
@@ -8279,9 +8416,9 @@
       <c r="AJ93" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE50">
-    <sortState ref="A2:AE50">
-      <sortCondition ref="D1:D50"/>
+  <autoFilter ref="A1:AE50" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE51">
+      <sortCondition ref="D1:D51"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmay/Documents/GitHub/SecurityConfigurableStorage_SPLC22/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rim\Documents\GitHub\SecurityConfigurableStorage_SPLC22\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C45924-D665-5F4C-9021-3E27EF7A89C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33595" windowHeight="21006"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">analysis!$A$1:$AF$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -425,9 +424,6 @@
   </si>
   <si>
     <t>Security threats</t>
-  </si>
-  <si>
-    <t>Security technology</t>
   </si>
   <si>
     <t>Storage &gt; SPL</t>
@@ -1253,11 +1249,14 @@
   <si>
     <t>NIST</t>
   </si>
+  <si>
+    <t>Mitigation techniques</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2104,27 +2103,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>61</v>
@@ -2153,7 +2152,7 @@
         <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>74</v>
@@ -2165,7 +2164,7 @@
         <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>64</v>
@@ -2195,7 +2194,7 @@
         <v>129</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>105</v>
@@ -2213,7 +2212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -2227,13 +2226,13 @@
         <v>2013</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -2242,70 +2241,70 @@
         <v>76</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="Y2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2319,82 +2318,82 @@
         <v>2013</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2408,85 +2407,85 @@
         <v>2013</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" t="s">
         <v>236</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>237</v>
-      </c>
       <c r="AD4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2500,85 +2499,85 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="X5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="X5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2592,13 +2591,13 @@
         <v>2014</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>76</v>
@@ -2607,70 +2606,70 @@
         <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="AD6" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2684,13 +2683,13 @@
         <v>2014</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>76</v>
@@ -2699,67 +2698,67 @@
         <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -2767,7 +2766,7 @@
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2781,13 +2780,13 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>76</v>
@@ -2796,75 +2795,75 @@
         <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD8" t="s">
         <v>247</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -2873,82 +2872,82 @@
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O9" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2962,79 +2961,79 @@
         <v>2014</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -3045,7 +3044,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3059,85 +3058,85 @@
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AD11" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3151,85 +3150,85 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U12" t="s">
+        <v>132</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W12" t="s">
         <v>165</v>
       </c>
-      <c r="O12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>133</v>
-      </c>
-      <c r="R12" t="s">
-        <v>133</v>
-      </c>
-      <c r="S12" t="s">
-        <v>135</v>
-      </c>
-      <c r="T12" t="s">
-        <v>133</v>
-      </c>
-      <c r="U12" t="s">
-        <v>133</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z12" t="s">
         <v>166</v>
       </c>
-      <c r="X12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AA12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s">
         <v>167</v>
       </c>
-      <c r="AA12" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>168</v>
       </c>
-      <c r="AD12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -3243,87 +3242,87 @@
         <v>2015</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3337,82 +3336,82 @@
         <v>2015</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="X14" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="AA14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3426,85 +3425,85 @@
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X15" t="s">
         <v>184</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD15" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="X15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3518,88 +3517,88 @@
         <v>2015</v>
       </c>
       <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="X16" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y16" t="s">
         <v>159</v>
       </c>
-      <c r="F16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s">
-        <v>189</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="X16" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>160</v>
-      </c>
       <c r="Z16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3607,189 +3606,189 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" t="s">
+        <v>194</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y17" t="s">
         <v>159</v>
       </c>
-      <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" t="s">
-        <v>194</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V17" t="s">
-        <v>195</v>
-      </c>
-      <c r="W17" s="5" t="s">
+      <c r="Z17" t="s">
         <v>197</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE17" t="s">
         <v>199</v>
       </c>
-      <c r="Y17" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
         <v>191</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
       </c>
       <c r="D18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" t="s">
+        <v>194</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y18" t="s">
         <v>159</v>
       </c>
-      <c r="F18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" t="s">
-        <v>195</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="X18" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>160</v>
-      </c>
       <c r="Z18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AE18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3803,82 +3802,82 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3892,13 +3891,13 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>76</v>
@@ -3907,67 +3906,67 @@
         <v>76</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -3981,82 +3980,82 @@
         <v>2015</v>
       </c>
       <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M21" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="Z21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -4070,13 +4069,13 @@
         <v>2015</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>76</v>
@@ -4085,87 +4084,87 @@
         <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23">
         <v>2015</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>76</v>
@@ -4174,70 +4173,70 @@
         <v>76</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V23" t="s">
+        <v>319</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="AD23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -4251,85 +4250,85 @@
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
         <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
         <v>76</v>
       </c>
       <c r="K24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>132</v>
+      </c>
+      <c r="R24" t="s">
+        <v>132</v>
+      </c>
+      <c r="S24" t="s">
+        <v>132</v>
+      </c>
+      <c r="T24" t="s">
+        <v>132</v>
+      </c>
+      <c r="U24" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" t="s">
+        <v>350</v>
+      </c>
+      <c r="W24" t="s">
+        <v>132</v>
+      </c>
+      <c r="X24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC24" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M24" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24" t="s">
-        <v>151</v>
-      </c>
-      <c r="O24" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>133</v>
-      </c>
-      <c r="R24" t="s">
-        <v>133</v>
-      </c>
-      <c r="S24" t="s">
-        <v>133</v>
-      </c>
-      <c r="T24" t="s">
-        <v>133</v>
-      </c>
-      <c r="U24" t="s">
-        <v>133</v>
-      </c>
-      <c r="V24" t="s">
-        <v>351</v>
-      </c>
-      <c r="W24" t="s">
-        <v>133</v>
-      </c>
-      <c r="X24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>149</v>
-      </c>
       <c r="AD24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -4343,82 +4342,82 @@
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -4432,13 +4431,13 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>76</v>
@@ -4447,71 +4446,71 @@
         <v>76</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AD26" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AD26" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -4525,13 +4524,13 @@
         <v>2016</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>76</v>
@@ -4540,28 +4539,28 @@
         <v>76</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>76</v>
@@ -4570,37 +4569,37 @@
         <v>76</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
         <v>232</v>
       </c>
-      <c r="W27" t="s">
-        <v>208</v>
-      </c>
-      <c r="X27" t="s">
-        <v>233</v>
-      </c>
       <c r="Y27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -4614,13 +4613,13 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>76</v>
@@ -4629,67 +4628,67 @@
         <v>76</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -4703,82 +4702,82 @@
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V29" t="s">
+        <v>248</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O29" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V29" t="s">
-        <v>249</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X29" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z29" t="s">
         <v>263</v>
       </c>
-      <c r="Y29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>264</v>
-      </c>
       <c r="AA29" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4792,82 +4791,82 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -4881,85 +4880,85 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" t="s">
         <v>268</v>
       </c>
-      <c r="F31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="P31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="N31" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O31" t="s">
-        <v>269</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -4973,37 +4972,37 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>76</v>
@@ -5024,31 +5023,31 @@
         <v>76</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -5062,177 +5061,177 @@
         <v>2016</v>
       </c>
       <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s">
+        <v>285</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="L33" t="s">
-        <v>284</v>
-      </c>
-      <c r="M33" t="s">
-        <v>286</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O33" t="s">
-        <v>133</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="Z33" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -5246,85 +5245,85 @@
         <v>2017</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
         <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
       </c>
       <c r="K35" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>134</v>
+      </c>
+      <c r="R35" t="s">
+        <v>134</v>
+      </c>
+      <c r="S35" t="s">
+        <v>132</v>
+      </c>
+      <c r="T35" t="s">
+        <v>132</v>
+      </c>
+      <c r="U35" t="s">
+        <v>132</v>
+      </c>
+      <c r="V35" t="s">
+        <v>138</v>
+      </c>
+      <c r="W35" t="s">
+        <v>132</v>
+      </c>
+      <c r="X35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s">
         <v>141</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O35" t="s">
-        <v>133</v>
-      </c>
-      <c r="P35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>135</v>
-      </c>
-      <c r="R35" t="s">
-        <v>135</v>
-      </c>
-      <c r="S35" t="s">
-        <v>133</v>
-      </c>
-      <c r="T35" t="s">
-        <v>133</v>
-      </c>
-      <c r="U35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V35" t="s">
-        <v>139</v>
-      </c>
-      <c r="W35" t="s">
-        <v>133</v>
-      </c>
-      <c r="X35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>142</v>
       </c>
-      <c r="AD35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -5338,85 +5337,85 @@
         <v>2017</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V36" t="s">
+        <v>245</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="X36" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA36" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V36" t="s">
-        <v>246</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="X36" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AB36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD36" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AB36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -5430,13 +5429,13 @@
         <v>2017</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>76</v>
@@ -5445,28 +5444,28 @@
         <v>76</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>76</v>
@@ -5475,45 +5474,45 @@
         <v>76</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V37" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W37" t="s">
+        <v>207</v>
+      </c>
+      <c r="X37" t="s">
         <v>232</v>
       </c>
-      <c r="W37" t="s">
-        <v>208</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="Y37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD37" t="s">
         <v>233</v>
       </c>
-      <c r="Y37" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
         <v>119</v>
@@ -5522,85 +5521,85 @@
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" t="s">
+        <v>132</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O38" t="s">
-        <v>133</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X38" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD38" t="s">
         <v>250</v>
       </c>
-      <c r="Y38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA38" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -5614,105 +5613,105 @@
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M39" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O39" t="s">
-        <v>133</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="X39" s="5" t="s">
+      <c r="AD39" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="Y39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>76</v>
@@ -5721,70 +5720,70 @@
         <v>76</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W40" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC40" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="X40" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC40" s="11" t="s">
+      <c r="AD40" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="AD40" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -5798,82 +5797,82 @@
         <v>2018</v>
       </c>
       <c r="E41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N41" t="s">
+        <v>164</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="X41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -5887,85 +5886,85 @@
         <v>2018</v>
       </c>
       <c r="E42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V42" t="s">
+        <v>194</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V42" t="s">
-        <v>195</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="X42" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -5979,85 +5978,85 @@
         <v>2019</v>
       </c>
       <c r="E43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>154</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M43" t="s">
+        <v>156</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O43" t="s">
+        <v>132</v>
+      </c>
+      <c r="P43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>134</v>
+      </c>
+      <c r="U43" t="s">
+        <v>132</v>
+      </c>
+      <c r="V43" t="s">
+        <v>145</v>
+      </c>
+      <c r="W43" t="s">
+        <v>182</v>
+      </c>
+      <c r="X43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y43" t="s">
         <v>159</v>
       </c>
-      <c r="F43" t="s">
-        <v>332</v>
-      </c>
-      <c r="G43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s">
-        <v>133</v>
-      </c>
-      <c r="K43" t="s">
-        <v>155</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="Z43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD43" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" t="s">
-        <v>133</v>
-      </c>
-      <c r="P43" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s">
-        <v>135</v>
-      </c>
-      <c r="U43" t="s">
-        <v>133</v>
-      </c>
-      <c r="V43" t="s">
-        <v>146</v>
-      </c>
-      <c r="W43" t="s">
-        <v>183</v>
-      </c>
-      <c r="X43" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -6071,85 +6070,85 @@
         <v>2019</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V44" t="s">
+        <v>194</v>
+      </c>
+      <c r="W44" t="s">
         <v>227</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V44" t="s">
-        <v>195</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="X44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC44" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="X44" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC44" s="5" t="s">
+      <c r="AD44" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AD44" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -6163,180 +6162,180 @@
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
+        <v>275</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O45" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V45" t="s">
+        <v>245</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O45" t="s">
-        <v>275</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V45" t="s">
-        <v>246</v>
-      </c>
-      <c r="W45" s="5" t="s">
+      <c r="X45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD45" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="X45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD45" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>140</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M46" t="s">
+        <v>241</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O46" t="s">
+        <v>132</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V46" t="s">
+        <v>245</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD46" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M46" t="s">
-        <v>242</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O46" t="s">
-        <v>133</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V46" t="s">
-        <v>246</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC46" s="5" t="s">
+      <c r="AE46" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="AD46" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE46" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -6350,82 +6349,82 @@
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" t="s">
         <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
         <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" t="s">
+        <v>162</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M47" t="s">
-        <v>163</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="O47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z47" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC47" t="s">
         <v>161</v>
       </c>
-      <c r="AA47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -6439,180 +6438,180 @@
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X48" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD48" t="s">
         <v>279</v>
       </c>
-      <c r="Y48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>280</v>
-      </c>
       <c r="AF48" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D49">
         <v>2020</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s">
+        <v>312</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O49" t="s">
+        <v>132</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V49" t="s">
+        <v>245</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC49" t="s">
         <v>313</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O49" t="s">
-        <v>133</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V49" t="s">
-        <v>246</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>314</v>
-      </c>
       <c r="AD49" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -6626,88 +6625,88 @@
         <v>2021</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O50" t="s">
+        <v>288</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W50" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="X50" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE50" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="P50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V50" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA50" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC50" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD50" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -6721,87 +6720,87 @@
         <v>2021</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>63</v>
@@ -6813,7 +6812,7 @@
         <v>74</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>69</v>
@@ -6825,16 +6824,16 @@
         <v>128</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -6843,77 +6842,77 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E54">
         <f>COUNTIF($E$2:$E$51,"*Administration and Management*")</f>
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H54">
         <f>COUNTIF($G$2:$G$51,"-")</f>
         <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K54">
         <f>COUNTIF($K$2:$K$51,"*cloud*")</f>
         <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N54">
         <f>COUNTIF($M$2:$M$51,"*code*")</f>
         <v>14</v>
       </c>
       <c r="P54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q54">
         <f>COUNTIF($P$2:$P$51,"-")</f>
         <v>35</v>
       </c>
       <c r="S54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T54">
         <f>COUNTIF($S$2:$S$51,"-")</f>
         <v>14</v>
       </c>
       <c r="V54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W54">
         <f>COUNTIF($V$2:$V$51,"*non-functional requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z54">
         <f>COUNTIF($X$2:$X$51,"*encryption*")</f>
         <v>19</v>
       </c>
       <c r="AB54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC54">
         <f>COUNTIF($Y$2:$Y$51,"software")</f>
         <v>31</v>
       </c>
       <c r="AE54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF54">
         <f>COUNTIF($AB$2:$AB$51,"-")</f>
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -6922,76 +6921,76 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55">
         <f>COUNTIF($E$2:$E$51,"*Production*")</f>
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H55">
         <f>COUNTIF($G$2:$G$51,"+")</f>
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K55">
         <f>COUNTIF($K$2:$K$51,"*database*")</f>
         <v>31</v>
       </c>
       <c r="M55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N55">
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q55">
         <f>COUNTIF($P$2:$P$51,"+")</f>
         <v>9</v>
       </c>
       <c r="S55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T55">
         <f>COUNTIF($S$2:$S$51,"+")</f>
         <v>22</v>
       </c>
       <c r="V55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W55">
         <f>COUNTIF($V$2:$V$51,"*quality*")</f>
         <v>7</v>
       </c>
       <c r="Y55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z55">
         <f>COUNTIF($X$2:$X$51,"*signature*")</f>
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC55">
         <f>COUNTIF($Y$2:$Y$51,"storage")</f>
         <v>8</v>
       </c>
       <c r="AE55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF55">
         <f>COUNTIF($AB$2:$AB$51,"+")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E56">
         <f>COUNTIF($E$2:$E$51,"*Retail*")</f>
@@ -7014,14 +7013,14 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K56">
         <f>COUNTIF($K$2:$K$51,"*SaaS*")</f>
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N56">
         <f>COUNTIF($M$2:$M$51,"*feature model*")</f>
@@ -7042,21 +7041,21 @@
         <v>14</v>
       </c>
       <c r="V56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W56">
         <f>COUNTIF($V$2:$V$51,"*system goal*")</f>
         <v>18</v>
       </c>
       <c r="Y56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z56">
         <f>COUNTIF($X$2:$X$51,"*access*")</f>
         <v>18</v>
       </c>
       <c r="AB56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC56">
         <f>COUNTIF($Y$2:$Y$51,"*software, storage*")</f>
@@ -7070,7 +7069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -7079,42 +7078,42 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E57">
         <f>COUNTIF($E$2:$E$51,"*Webapplication*")</f>
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K57">
         <f>COUNTIF($K$2:$K$51,"*cloud, database*")</f>
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N57">
         <f>COUNTIF($M$2:$M$51,"*variability model*")</f>
         <v>3</v>
       </c>
       <c r="V57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W57">
         <f>COUNTIF($V$2:$V$51,"*system requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z57">
         <f>COUNTIF($X$2:$X$51,"*isolation*")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2017</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E58">
         <f>COUNTIF($E$2:$E$51,"*Production*")</f>
@@ -7133,14 +7132,14 @@
         <v>62</v>
       </c>
       <c r="J58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K58">
         <f>COUNTIF($K$2:$K$51,"*fog, database*")</f>
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N58">
         <f>COUNTIF($M$2:$M$51,"*variant*")</f>
@@ -7153,27 +7152,27 @@
         <v>73</v>
       </c>
       <c r="V58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W58">
         <f>COUNTIF($V$2:$V$51,"*security goal*")</f>
         <v>6</v>
       </c>
       <c r="Y58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z58">
         <f>COUNTIF($X$2:$X$51,"*varia*")</f>
         <v>1</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -7182,69 +7181,69 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59">
         <f>COUNTIF($E$2:$E$51,"*unspecificed*")</f>
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H59">
         <f>COUNTIF($H$2:$H$51,"-")</f>
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K59">
         <f>COUNTIF($K$2:$K$51,"*cloud, database, SaaS*")</f>
         <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q59">
         <f>COUNTIF($Q$2:$Q$51,"-")</f>
         <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T59">
         <f>COUNTIF($T$2:$T$51,"-")</f>
         <v>33</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W59">
         <f>COUNTIF($V$2:$V$51,"*system feature*")</f>
         <v>4</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z59">
         <f>COUNTIF($X$2:$X$51,"*firewall*")</f>
         <v>4</v>
       </c>
       <c r="AB59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC59">
         <f>COUNTIF($Z$2:$Z$51,"problem-space")</f>
         <v>6</v>
       </c>
       <c r="AE59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF59">
         <f>COUNTIF($AC$2:$AC$51,"*IDE*")</f>
@@ -7254,7 +7253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -7263,69 +7262,69 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E60">
         <f>COUNTIF($E$2:$E$51,"*Other*")</f>
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H60">
         <f>COUNTIF($H$2:$H$51,"+")</f>
         <v>3</v>
       </c>
       <c r="M60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N60">
         <f>COUNTIF($M$2:$M$51,"*plug*")</f>
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q60">
         <f>COUNTIF($Q$2:$Q$51,"+")</f>
         <v>3</v>
       </c>
       <c r="S60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T60">
         <f>COUNTIF($T$2:$T$51,"+")</f>
         <v>11</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W60">
         <v>20</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z60">
         <f>COUNTIF($X$2:$X$51,"*misuse*")</f>
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC60">
         <f>COUNTIF($Z$2:$Z$51,"mapping")</f>
         <v>2</v>
       </c>
       <c r="AE60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF60">
         <f>COUNTIF($AC$2:$AC$51,"pure*")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>124</v>
       </c>
       <c r="M61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N61">
         <f>COUNTIF($M$2:$M$51,"*user*")</f>
@@ -7365,28 +7364,28 @@
         <v>6</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z61">
         <f>COUNTIF($X$2:$X$51,"*model*")</f>
         <v>1</v>
       </c>
       <c r="AB61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC61">
         <f>COUNTIF($Z$2:$Z$51,"solution-space")</f>
         <v>16</v>
       </c>
       <c r="AE61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF61">
         <f>COUNTIF($AC$2:$AC$51,"*UML*")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -7395,14 +7394,14 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K62">
         <f>COUNTIF($L$2:$L$51,"*centralized*")</f>
         <v>48</v>
       </c>
       <c r="M62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N62">
         <f>COUNTIF($M$2:$M$51,"*meta*")</f>
@@ -7412,38 +7411,38 @@
         <v>129</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z62">
         <f>COUNTIF($X$2:$X$51,"*separation*")</f>
         <v>1</v>
       </c>
       <c r="AB62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC62">
         <f>COUNTIF($Z$2:$Z$51,"*mapping, solution-space*")</f>
         <v>20</v>
       </c>
       <c r="AE62" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF62">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G63" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -7455,134 +7454,134 @@
         <v>127</v>
       </c>
       <c r="V63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W63">
         <f>COUNTIF($W$2:$W$51,"*privacy*")</f>
         <v>17</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z63">
         <v>7</v>
       </c>
       <c r="AB63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC63">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping*")</f>
         <v>15</v>
       </c>
       <c r="AE63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF63">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H64">
         <f>COUNTIF($I$2:$I$51,"-")</f>
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N64">
         <f>COUNTIF($M$2:$M$51,"*patch*")</f>
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q64">
         <f>COUNTIF($R$2:$R$51,"-")</f>
         <v>12</v>
       </c>
       <c r="S64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T64">
         <f>COUNTIF($U$2:$U$51,"-")</f>
         <v>41</v>
       </c>
       <c r="V64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W64">
         <f>COUNTIF($W$2:$W$51,"*access*")</f>
         <v>23</v>
       </c>
       <c r="AB64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC64">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping, solution-space*")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H65">
         <f>COUNTIF($I$2:$I$51,"+")</f>
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K65">
         <f>COUNTIF($L$2:$L$51,"-")</f>
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N65">
         <f>COUNTIF($M$2:$M$51,"*unspecified*")</f>
         <v>4</v>
       </c>
       <c r="P65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q65">
         <f>COUNTIF($R$2:$R$51,"+")</f>
         <v>20</v>
       </c>
       <c r="S65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T65">
         <f>COUNTIF($U$2:$U$51,"+")</f>
         <v>6</v>
       </c>
       <c r="V65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W65">
         <f>COUNTIF($W$2:$W$51,"*communication*")</f>
         <v>6</v>
       </c>
       <c r="Y65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z65">
         <f>COUNTIF($X$2:$X$51,"*SSH*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>76</v>
       </c>
@@ -7605,48 +7604,48 @@
         <v>3</v>
       </c>
       <c r="V66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W66">
         <f>COUNTIF($W$2:$W$51,"*variability*")</f>
         <v>9</v>
       </c>
       <c r="Y66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z66">
         <f>COUNTIF($X$2:$X$51,"*TLS*")</f>
         <v>3</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC66"/>
       <c r="AK66"/>
       <c r="AL66"/>
       <c r="AM66"/>
     </row>
-    <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N67"/>
       <c r="V67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W67">
         <f>COUNTIF($W$2:$W$51,"*hardware*")</f>
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z67">
         <f>COUNTIF($X$2:$X$51,"*SSL*")</f>
         <v>4</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC67">
         <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
@@ -7656,108 +7655,108 @@
       <c r="AL67"/>
       <c r="AM67"/>
     </row>
-    <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H68"/>
       <c r="M68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N68">
         <f>COUNTIF($N$2:$N$51,"*system*")</f>
         <v>50</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W68">
         <f>COUNTIF($W$2:$W$51,"*manipulation*")</f>
         <v>2</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z68">
         <f>COUNTIF($X$2:$X$51,"*SGX*")</f>
         <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC68">
         <f>COUNTIF($AA$2:$AA$51,"product-based")</f>
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69">
         <f>COUNTIF($J$2:$J$51,"-")</f>
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N69">
         <f>COUNTIF($N$2:$N$51,"*system, user*")</f>
         <v>40</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W69">
         <f>COUNTIF($W$2:$W$51,"*theft*")</f>
         <v>2</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z69">
         <f>COUNTIF($X$2:$X$51,"*AES*")</f>
         <v>1</v>
       </c>
       <c r="AB69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC69">
         <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70">
         <f>COUNTIF($J$2:$J$51,"+")</f>
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N70">
         <f>COUNTIF($N$2:$N$51,"*user*")</f>
         <v>41</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W70">
         <f>COUNTIF($W$2:$W$51,"*malware*")</f>
         <v>1</v>
       </c>
       <c r="AB70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AC70">
         <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>76</v>
       </c>
@@ -7766,90 +7765,90 @@
         <v>28</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N71">
         <v>13</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W71">
         <f>COUNTIF($W$2:$W$51,"*bugs*")</f>
         <v>2</v>
       </c>
       <c r="AB71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC71">
         <f>COUNTIF($AA$2:$AA$51,"-")</f>
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V72" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W72">
         <f>COUNTIF($W$2:$W$51,"*maintenance*")</f>
         <v>1</v>
       </c>
       <c r="AB72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N73"/>
       <c r="V73" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W73">
         <f>COUNTIF($W$2:$W$51,"*vulner*")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W74">
         <f>COUNTIF($W$2:$W$51,"*trust*")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N75">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AM76" s="5"/>
       <c r="AN76" s="5"/>
       <c r="AO76" s="5"/>
       <c r="AP76" s="5"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AM77" s="5"/>
       <c r="AN77" s="5"/>
       <c r="AO77" s="5"/>
       <c r="AP77" s="5"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
@@ -7860,42 +7859,42 @@
       <c r="AO78" s="5"/>
       <c r="AP78" s="5"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AK80" s="5"/>
       <c r="AL80" s="5"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
       <c r="C82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
       <c r="C83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -7918,7 +7917,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -7927,13 +7926,13 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
@@ -7950,7 +7949,7 @@
       <c r="AJ84" s="2"/>
       <c r="AM84" s="5"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
@@ -7969,10 +7968,10 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -8001,7 +8000,7 @@
       <c r="AJ85" s="2"/>
       <c r="AM85" s="5"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>76</v>
       </c>
@@ -8049,7 +8048,7 @@
       <c r="AK86" s="5"/>
       <c r="AL86" s="5"/>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>76</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>2016</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -8099,7 +8098,7 @@
       <c r="AK87" s="5"/>
       <c r="AL87" s="5"/>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>76</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>2016</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -8124,46 +8123,46 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="W88" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="W88" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="X88" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
@@ -8175,7 +8174,7 @@
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>76</v>
       </c>
@@ -8194,7 +8193,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8223,7 +8222,7 @@
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>76</v>
       </c>
@@ -8269,7 +8268,7 @@
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>76</v>
       </c>
@@ -8307,7 +8306,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -8317,7 +8316,7 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>76</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>2016</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -8365,7 +8364,7 @@
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>76</v>
       </c>
@@ -8386,7 +8385,7 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -8416,8 +8415,8 @@
       <c r="AJ93" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE50" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE51">
+  <autoFilter ref="A1:AE50">
+    <sortState ref="A2:AE51">
       <sortCondition ref="D1:D51"/>
     </sortState>
   </autoFilter>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -291,9 +291,6 @@
     <t>Shabaan</t>
   </si>
   <si>
-    <t>Duarte</t>
-  </si>
-  <si>
     <t>Exploring Variability-Aware Execution for Testing Plugin-Based Web           Applications</t>
   </si>
   <si>
@@ -1251,6 +1248,9 @@
   </si>
   <si>
     <t>Mitigation techniques</t>
+  </si>
+  <si>
+    <t>Jose A. Galindo, Deepak Dhungana, Rick Rabiser, David Benavides, Goetz Botterweck and Paul Grünbacher</t>
   </si>
 </sst>
 </file>
@@ -2106,9 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="150" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2140,7 @@
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>61</v>
@@ -2152,19 +2152,19 @@
         <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>64</v>
@@ -2185,19 +2185,19 @@
         <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>65</v>
@@ -2217,22 +2217,22 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
       </c>
       <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -2241,67 +2241,67 @@
         <v>76</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
         <v>173</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2318,79 +2318,79 @@
         <v>2013</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2407,82 +2407,82 @@
         <v>2013</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" t="s">
         <v>235</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>236</v>
-      </c>
       <c r="AD4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2490,91 +2490,91 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="X5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="X5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2582,22 +2582,22 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>2014</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>76</v>
@@ -2606,67 +2606,67 @@
         <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O6" t="s">
-        <v>132</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="AD6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -2683,13 +2683,13 @@
         <v>2014</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>76</v>
@@ -2698,67 +2698,67 @@
         <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X7" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -2780,13 +2780,13 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>76</v>
@@ -2795,67 +2795,67 @@
         <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" t="s">
         <v>246</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2863,88 +2863,88 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O9" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2961,79 +2961,79 @@
         <v>2014</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -3058,82 +3058,82 @@
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3141,91 +3141,91 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>131</v>
+      </c>
+      <c r="R12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S12" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" t="s">
+        <v>131</v>
+      </c>
+      <c r="U12" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W12" t="s">
         <v>164</v>
       </c>
-      <c r="O12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P12" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>132</v>
-      </c>
-      <c r="R12" t="s">
-        <v>132</v>
-      </c>
-      <c r="S12" t="s">
-        <v>134</v>
-      </c>
-      <c r="T12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U12" t="s">
-        <v>132</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z12" t="s">
         <v>165</v>
       </c>
-      <c r="X12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AA12" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s">
         <v>166</v>
       </c>
-      <c r="AA12" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>167</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -3242,82 +3242,82 @@
         <v>2015</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -3327,88 +3327,88 @@
         <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="X14" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="AA14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -3416,91 +3416,91 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s">
         <v>183</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD15" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="X15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3517,85 +3517,85 @@
         <v>2015</v>
       </c>
       <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="X16" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y16" t="s">
         <v>158</v>
       </c>
-      <c r="F16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" t="s">
-        <v>188</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="X16" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>159</v>
-      </c>
       <c r="Z16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -3606,91 +3606,91 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" t="s">
+        <v>193</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="X17" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s">
         <v>158</v>
       </c>
-      <c r="F17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" t="s">
-        <v>193</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V17" t="s">
-        <v>194</v>
-      </c>
-      <c r="W17" s="5" t="s">
+      <c r="Z17" t="s">
         <v>196</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE17" t="s">
         <v>198</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -3698,94 +3698,94 @@
         <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
         <v>190</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
       </c>
       <c r="D18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V18" t="s">
+        <v>193</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y18" t="s">
         <v>158</v>
       </c>
-      <c r="F18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" t="s">
-        <v>132</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V18" t="s">
-        <v>194</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X18" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>159</v>
-      </c>
       <c r="Z18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -3802,79 +3802,79 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -3891,13 +3891,13 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>76</v>
@@ -3906,64 +3906,64 @@
         <v>76</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O20" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3980,79 +3980,79 @@
         <v>2015</v>
       </c>
       <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="Z21" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4060,22 +4060,22 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22">
         <v>2015</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>76</v>
@@ -4084,64 +4084,64 @@
         <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -4149,22 +4149,22 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D23">
         <v>2015</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>76</v>
@@ -4173,67 +4173,67 @@
         <v>76</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V23" t="s">
+        <v>318</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="AD23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4250,82 +4250,82 @@
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
         <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
         <v>76</v>
       </c>
       <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" t="s">
+        <v>131</v>
+      </c>
+      <c r="S24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" t="s">
+        <v>131</v>
+      </c>
+      <c r="V24" t="s">
+        <v>349</v>
+      </c>
+      <c r="W24" t="s">
+        <v>131</v>
+      </c>
+      <c r="X24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" t="s">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s">
-        <v>132</v>
-      </c>
-      <c r="P24" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>132</v>
-      </c>
-      <c r="R24" t="s">
-        <v>132</v>
-      </c>
-      <c r="S24" t="s">
-        <v>132</v>
-      </c>
-      <c r="T24" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" t="s">
-        <v>132</v>
-      </c>
-      <c r="V24" t="s">
-        <v>350</v>
-      </c>
-      <c r="W24" t="s">
-        <v>132</v>
-      </c>
-      <c r="X24" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>148</v>
-      </c>
       <c r="AD24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -4342,79 +4342,79 @@
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -4431,13 +4431,13 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>76</v>
@@ -4446,67 +4446,67 @@
         <v>76</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AD26" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="AE26" s="5"/>
     </row>
@@ -4515,22 +4515,22 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>2016</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>76</v>
@@ -4539,28 +4539,28 @@
         <v>76</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>76</v>
@@ -4569,34 +4569,34 @@
         <v>76</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W27" t="s">
+        <v>206</v>
+      </c>
+      <c r="X27" t="s">
         <v>231</v>
       </c>
-      <c r="W27" t="s">
-        <v>207</v>
-      </c>
-      <c r="X27" t="s">
-        <v>232</v>
-      </c>
       <c r="Y27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -4604,22 +4604,22 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>76</v>
@@ -4628,64 +4628,64 @@
         <v>76</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M28" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O28" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O28" t="s">
-        <v>132</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -4693,88 +4693,88 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O29" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O29" t="s">
-        <v>132</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V29" t="s">
-        <v>248</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X29" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z29" t="s">
         <v>262</v>
       </c>
-      <c r="Y29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>263</v>
-      </c>
       <c r="AA29" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -4791,79 +4791,79 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4880,82 +4880,82 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
         <v>267</v>
       </c>
-      <c r="F31" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="P31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31" t="s">
-        <v>268</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -4972,37 +4972,37 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>76</v>
@@ -5023,28 +5023,28 @@
         <v>76</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -5061,85 +5061,85 @@
         <v>2016</v>
       </c>
       <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="s">
+        <v>284</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="L33" t="s">
-        <v>283</v>
-      </c>
-      <c r="M33" t="s">
-        <v>285</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O33" t="s">
-        <v>132</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="Z33" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -5147,88 +5147,88 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -5236,91 +5236,91 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
       </c>
       <c r="D35">
         <v>2017</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
         <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
       </c>
       <c r="K35" t="s">
+        <v>139</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" t="s">
+        <v>131</v>
+      </c>
+      <c r="P35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" t="s">
+        <v>133</v>
+      </c>
+      <c r="S35" t="s">
+        <v>131</v>
+      </c>
+      <c r="T35" t="s">
+        <v>131</v>
+      </c>
+      <c r="U35" t="s">
+        <v>131</v>
+      </c>
+      <c r="V35" t="s">
+        <v>137</v>
+      </c>
+      <c r="W35" t="s">
+        <v>131</v>
+      </c>
+      <c r="X35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s">
         <v>140</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M35" t="s">
-        <v>143</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" t="s">
-        <v>132</v>
-      </c>
-      <c r="P35" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>134</v>
-      </c>
-      <c r="R35" t="s">
-        <v>134</v>
-      </c>
-      <c r="S35" t="s">
-        <v>132</v>
-      </c>
-      <c r="T35" t="s">
-        <v>132</v>
-      </c>
-      <c r="U35" t="s">
-        <v>132</v>
-      </c>
-      <c r="V35" t="s">
-        <v>138</v>
-      </c>
-      <c r="W35" t="s">
-        <v>132</v>
-      </c>
-      <c r="X35" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>141</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -5328,91 +5328,91 @@
         <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <v>2017</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V36" t="s">
+        <v>244</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="X36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA36" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V36" t="s">
-        <v>245</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="X36" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AB36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD36" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -5420,22 +5420,22 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
         <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
       </c>
       <c r="D37">
         <v>2017</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>76</v>
@@ -5444,28 +5444,28 @@
         <v>76</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>76</v>
@@ -5474,37 +5474,37 @@
         <v>76</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V37" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W37" t="s">
+        <v>206</v>
+      </c>
+      <c r="X37" t="s">
         <v>231</v>
       </c>
-      <c r="W37" t="s">
-        <v>207</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="Y37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD37" t="s">
         <v>232</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -5512,91 +5512,91 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O38" t="s">
-        <v>132</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X38" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD38" t="s">
         <v>249</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA38" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -5613,82 +5613,82 @@
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M39" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" t="s">
+        <v>131</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O39" t="s">
-        <v>132</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="X39" s="5" t="s">
+      <c r="AD39" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5696,22 +5696,22 @@
         <v>76</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>76</v>
@@ -5720,67 +5720,67 @@
         <v>76</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W40" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC40" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="X40" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC40" s="11" t="s">
+      <c r="AD40" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="AD40" s="5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -5788,88 +5788,88 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
       </c>
       <c r="D41">
         <v>2018</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s">
+        <v>163</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="X41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -5886,82 +5886,82 @@
         <v>2018</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V42" t="s">
+        <v>193</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V42" t="s">
-        <v>194</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="X42" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5978,82 +5978,82 @@
         <v>2019</v>
       </c>
       <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O43" t="s">
+        <v>131</v>
+      </c>
+      <c r="P43" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>133</v>
+      </c>
+      <c r="U43" t="s">
+        <v>131</v>
+      </c>
+      <c r="V43" t="s">
+        <v>144</v>
+      </c>
+      <c r="W43" t="s">
+        <v>181</v>
+      </c>
+      <c r="X43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y43" t="s">
         <v>158</v>
       </c>
-      <c r="F43" t="s">
-        <v>331</v>
-      </c>
-      <c r="G43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" t="s">
-        <v>154</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="Z43" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD43" t="s">
         <v>156</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="O43" t="s">
-        <v>132</v>
-      </c>
-      <c r="P43" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s">
-        <v>134</v>
-      </c>
-      <c r="U43" t="s">
-        <v>132</v>
-      </c>
-      <c r="V43" t="s">
-        <v>145</v>
-      </c>
-      <c r="W43" t="s">
-        <v>182</v>
-      </c>
-      <c r="X43" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -6070,82 +6070,82 @@
         <v>2019</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V44" t="s">
+        <v>193</v>
+      </c>
+      <c r="W44" t="s">
         <v>226</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V44" t="s">
-        <v>194</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="X44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC44" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="X44" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC44" s="5" t="s">
+      <c r="AD44" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="AD44" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -6162,82 +6162,82 @@
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s">
+        <v>274</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O45" t="s">
+        <v>273</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V45" t="s">
+        <v>244</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="O45" t="s">
-        <v>274</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V45" t="s">
-        <v>245</v>
-      </c>
-      <c r="W45" s="5" t="s">
+      <c r="X45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD45" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD45" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -6245,94 +6245,94 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F46" t="s">
+        <v>307</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>139</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" t="s">
+        <v>240</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O46" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V46" t="s">
+        <v>244</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD46" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M46" t="s">
-        <v>241</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O46" t="s">
-        <v>132</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="V46" t="s">
-        <v>245</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC46" s="5" t="s">
+      <c r="AE46" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="AD46" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE46" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -6349,79 +6349,79 @@
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H47" t="s">
         <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" t="s">
         <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M47" t="s">
+        <v>161</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M47" t="s">
-        <v>162</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="O47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC47" t="s">
         <v>160</v>
-      </c>
-      <c r="AA47" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6438,85 +6438,85 @@
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X48" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD48" t="s">
         <v>278</v>
       </c>
-      <c r="Y48" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB48" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>279</v>
-      </c>
       <c r="AF48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6524,91 +6524,91 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49">
         <v>2020</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s">
+        <v>311</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O49" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V49" t="s">
+        <v>244</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC49" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O49" t="s">
-        <v>132</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V49" t="s">
-        <v>245</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>313</v>
-      </c>
       <c r="AD49" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6625,85 +6625,85 @@
         <v>2021</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s">
+        <v>289</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O50" t="s">
+        <v>287</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="W50" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="X50" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE50" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V50" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA50" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC50" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD50" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -6720,87 +6720,87 @@
         <v>2021</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>63</v>
@@ -6812,7 +6812,7 @@
         <v>74</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>69</v>
@@ -6821,13 +6821,13 @@
         <v>72</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>67</v>
@@ -6842,70 +6842,70 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54">
         <f>COUNTIF($E$2:$E$51,"*Administration and Management*")</f>
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H54">
         <f>COUNTIF($G$2:$G$51,"-")</f>
         <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K54">
         <f>COUNTIF($K$2:$K$51,"*cloud*")</f>
         <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N54">
         <f>COUNTIF($M$2:$M$51,"*code*")</f>
         <v>14</v>
       </c>
       <c r="P54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q54">
         <f>COUNTIF($P$2:$P$51,"-")</f>
         <v>35</v>
       </c>
       <c r="S54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T54">
         <f>COUNTIF($S$2:$S$51,"-")</f>
         <v>14</v>
       </c>
       <c r="V54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W54">
         <f>COUNTIF($V$2:$V$51,"*non-functional requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z54">
         <f>COUNTIF($X$2:$X$51,"*encryption*")</f>
         <v>19</v>
       </c>
       <c r="AB54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC54">
         <f>COUNTIF($Y$2:$Y$51,"software")</f>
         <v>31</v>
       </c>
       <c r="AE54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF54">
         <f>COUNTIF($AB$2:$AB$51,"-")</f>
@@ -6921,69 +6921,69 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E55">
         <f>COUNTIF($E$2:$E$51,"*Production*")</f>
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55">
         <f>COUNTIF($G$2:$G$51,"+")</f>
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K55">
         <f>COUNTIF($K$2:$K$51,"*database*")</f>
         <v>31</v>
       </c>
       <c r="M55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N55">
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q55">
         <f>COUNTIF($P$2:$P$51,"+")</f>
         <v>9</v>
       </c>
       <c r="S55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T55">
         <f>COUNTIF($S$2:$S$51,"+")</f>
         <v>22</v>
       </c>
       <c r="V55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W55">
         <f>COUNTIF($V$2:$V$51,"*quality*")</f>
         <v>7</v>
       </c>
       <c r="Y55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z55">
         <f>COUNTIF($X$2:$X$51,"*signature*")</f>
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC55">
         <f>COUNTIF($Y$2:$Y$51,"storage")</f>
         <v>8</v>
       </c>
       <c r="AE55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF55">
         <f>COUNTIF($AB$2:$AB$51,"+")</f>
@@ -6999,7 +6999,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E56">
         <f>COUNTIF($E$2:$E$51,"*Retail*")</f>
@@ -7013,14 +7013,14 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K56">
         <f>COUNTIF($K$2:$K$51,"*SaaS*")</f>
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N56">
         <f>COUNTIF($M$2:$M$51,"*feature model*")</f>
@@ -7041,21 +7041,21 @@
         <v>14</v>
       </c>
       <c r="V56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W56">
         <f>COUNTIF($V$2:$V$51,"*system goal*")</f>
         <v>18</v>
       </c>
       <c r="Y56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z56">
         <f>COUNTIF($X$2:$X$51,"*access*")</f>
         <v>18</v>
       </c>
       <c r="AB56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC56">
         <f>COUNTIF($Y$2:$Y$51,"*software, storage*")</f>
@@ -7078,35 +7078,35 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E57">
         <f>COUNTIF($E$2:$E$51,"*Webapplication*")</f>
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K57">
         <f>COUNTIF($K$2:$K$51,"*cloud, database*")</f>
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N57">
         <f>COUNTIF($M$2:$M$51,"*variability model*")</f>
         <v>3</v>
       </c>
       <c r="V57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W57">
         <f>COUNTIF($V$2:$V$51,"*system requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z57">
         <f>COUNTIF($X$2:$X$51,"*isolation*")</f>
@@ -7122,7 +7122,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E58">
         <f>COUNTIF($E$2:$E$51,"*Production*")</f>
@@ -7132,14 +7132,14 @@
         <v>62</v>
       </c>
       <c r="J58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K58">
         <f>COUNTIF($K$2:$K$51,"*fog, database*")</f>
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N58">
         <f>COUNTIF($M$2:$M$51,"*variant*")</f>
@@ -7152,21 +7152,21 @@
         <v>73</v>
       </c>
       <c r="V58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W58">
         <f>COUNTIF($V$2:$V$51,"*security goal*")</f>
         <v>6</v>
       </c>
       <c r="Y58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z58">
         <f>COUNTIF($X$2:$X$51,"*varia*")</f>
         <v>1</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>68</v>
@@ -7181,69 +7181,69 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59">
         <f>COUNTIF($E$2:$E$51,"*unspecificed*")</f>
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H59">
         <f>COUNTIF($H$2:$H$51,"-")</f>
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K59">
         <f>COUNTIF($K$2:$K$51,"*cloud, database, SaaS*")</f>
         <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q59">
         <f>COUNTIF($Q$2:$Q$51,"-")</f>
         <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T59">
         <f>COUNTIF($T$2:$T$51,"-")</f>
         <v>33</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W59">
         <f>COUNTIF($V$2:$V$51,"*system feature*")</f>
         <v>4</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z59">
         <f>COUNTIF($X$2:$X$51,"*firewall*")</f>
         <v>4</v>
       </c>
       <c r="AB59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC59">
         <f>COUNTIF($Z$2:$Z$51,"problem-space")</f>
         <v>6</v>
       </c>
       <c r="AE59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF59">
         <f>COUNTIF($AC$2:$AC$51,"*IDE*")</f>
@@ -7262,62 +7262,62 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E60">
         <f>COUNTIF($E$2:$E$51,"*Other*")</f>
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60">
         <f>COUNTIF($H$2:$H$51,"+")</f>
         <v>3</v>
       </c>
       <c r="M60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N60">
         <f>COUNTIF($M$2:$M$51,"*plug*")</f>
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q60">
         <f>COUNTIF($Q$2:$Q$51,"+")</f>
         <v>3</v>
       </c>
       <c r="S60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T60">
         <f>COUNTIF($T$2:$T$51,"+")</f>
         <v>11</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W60">
         <v>20</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z60">
         <f>COUNTIF($X$2:$X$51,"*misuse*")</f>
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC60">
         <f>COUNTIF($Z$2:$Z$51,"mapping")</f>
         <v>2</v>
       </c>
       <c r="AE60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF60">
         <f>COUNTIF($AC$2:$AC$51,"pure*")</f>
@@ -7340,10 +7340,10 @@
         <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N61">
         <f>COUNTIF($M$2:$M$51,"*user*")</f>
@@ -7364,21 +7364,21 @@
         <v>6</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z61">
         <f>COUNTIF($X$2:$X$51,"*model*")</f>
         <v>1</v>
       </c>
       <c r="AB61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC61">
         <f>COUNTIF($Z$2:$Z$51,"solution-space")</f>
         <v>16</v>
       </c>
       <c r="AE61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF61">
         <f>COUNTIF($AC$2:$AC$51,"*UML*")</f>
@@ -7394,38 +7394,38 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K62">
         <f>COUNTIF($L$2:$L$51,"*centralized*")</f>
         <v>48</v>
       </c>
       <c r="M62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N62">
         <f>COUNTIF($M$2:$M$51,"*meta*")</f>
         <v>3</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Z62">
         <f>COUNTIF($X$2:$X$51,"*separation*")</f>
         <v>1</v>
       </c>
       <c r="AB62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC62">
         <f>COUNTIF($Z$2:$Z$51,"*mapping, solution-space*")</f>
         <v>20</v>
       </c>
       <c r="AE62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -7433,16 +7433,16 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G63" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -7451,30 +7451,30 @@
         <v>71</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W63">
         <f>COUNTIF($W$2:$W$51,"*privacy*")</f>
         <v>17</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z63">
         <v>7</v>
       </c>
       <c r="AB63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC63">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping*")</f>
         <v>15</v>
       </c>
       <c r="AE63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF63">
         <v>8</v>
@@ -7482,48 +7482,48 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H64">
         <f>COUNTIF($I$2:$I$51,"-")</f>
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N64">
         <f>COUNTIF($M$2:$M$51,"*patch*")</f>
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q64">
         <f>COUNTIF($R$2:$R$51,"-")</f>
         <v>12</v>
       </c>
       <c r="S64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T64">
         <f>COUNTIF($U$2:$U$51,"-")</f>
         <v>41</v>
       </c>
       <c r="V64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W64">
         <f>COUNTIF($W$2:$W$51,"*access*")</f>
         <v>23</v>
       </c>
       <c r="AB64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC64">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping, solution-space*")</f>
@@ -7532,49 +7532,49 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65">
         <f>COUNTIF($I$2:$I$51,"+")</f>
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K65">
         <f>COUNTIF($L$2:$L$51,"-")</f>
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N65">
         <f>COUNTIF($M$2:$M$51,"*unspecified*")</f>
         <v>4</v>
       </c>
       <c r="P65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q65">
         <f>COUNTIF($R$2:$R$51,"+")</f>
         <v>20</v>
       </c>
       <c r="S65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T65">
         <f>COUNTIF($U$2:$U$51,"+")</f>
         <v>6</v>
       </c>
       <c r="V65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W65">
         <f>COUNTIF($W$2:$W$51,"*communication*")</f>
         <v>6</v>
       </c>
       <c r="Y65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z65">
         <f>COUNTIF($X$2:$X$51,"*SSH*")</f>
@@ -7604,21 +7604,21 @@
         <v>3</v>
       </c>
       <c r="V66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W66">
         <f>COUNTIF($W$2:$W$51,"*variability*")</f>
         <v>9</v>
       </c>
       <c r="Y66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z66">
         <f>COUNTIF($X$2:$X$51,"*TLS*")</f>
         <v>3</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC66"/>
       <c r="AK66"/>
@@ -7627,25 +7627,25 @@
     </row>
     <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N67"/>
       <c r="V67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W67">
         <f>COUNTIF($W$2:$W$51,"*hardware*")</f>
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z67">
         <f>COUNTIF($X$2:$X$51,"*SSL*")</f>
         <v>4</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC67">
         <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
@@ -7657,32 +7657,32 @@
     </row>
     <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G68" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H68"/>
       <c r="M68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N68">
         <f>COUNTIF($N$2:$N$51,"*system*")</f>
         <v>50</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W68">
         <f>COUNTIF($W$2:$W$51,"*manipulation*")</f>
         <v>2</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z68">
         <f>COUNTIF($X$2:$X$51,"*SGX*")</f>
         <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC68">
         <f>COUNTIF($AA$2:$AA$51,"product-based")</f>
@@ -7691,35 +7691,35 @@
     </row>
     <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H69">
         <f>COUNTIF($J$2:$J$51,"-")</f>
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N69">
         <f>COUNTIF($N$2:$N$51,"*system, user*")</f>
         <v>40</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W69">
         <f>COUNTIF($W$2:$W$51,"*theft*")</f>
         <v>2</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z69">
         <f>COUNTIF($X$2:$X$51,"*AES*")</f>
         <v>1</v>
       </c>
       <c r="AB69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC69">
         <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
@@ -7728,28 +7728,28 @@
     </row>
     <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70">
         <f>COUNTIF($J$2:$J$51,"+")</f>
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N70">
         <f>COUNTIF($N$2:$N$51,"*user*")</f>
         <v>41</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W70">
         <f>COUNTIF($W$2:$W$51,"*malware*")</f>
         <v>1</v>
       </c>
       <c r="AB70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC70">
         <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
@@ -7765,20 +7765,20 @@
         <v>28</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N71">
         <v>13</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W71">
         <f>COUNTIF($W$2:$W$51,"*bugs*")</f>
         <v>2</v>
       </c>
       <c r="AB71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC71">
         <f>COUNTIF($AA$2:$AA$51,"-")</f>
@@ -7787,14 +7787,14 @@
     </row>
     <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V72" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W72">
         <f>COUNTIF($W$2:$W$51,"*maintenance*")</f>
         <v>1</v>
       </c>
       <c r="AB72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AC72">
         <v>18</v>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="N73"/>
       <c r="V73" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W73">
         <f>COUNTIF($W$2:$W$51,"*vulner*")</f>
@@ -7815,13 +7815,13 @@
     </row>
     <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W74">
         <f>COUNTIF($W$2:$W$51,"*trust*")</f>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N75">
         <v>43</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK78" s="5"/>
       <c r="AL78" s="5"/>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
@@ -7872,23 +7872,23 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>76</v>
@@ -7917,7 +7917,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -7926,13 +7926,13 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
@@ -7968,10 +7968,10 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -8062,7 +8062,7 @@
         <v>2016</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -8103,16 +8103,16 @@
         <v>76</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D88" s="2">
         <v>2016</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -8123,46 +8123,46 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="W88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="W88" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="X88" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
@@ -8179,10 +8179,10 @@
         <v>76</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D89" s="2">
         <v>2014</v>
@@ -8193,7 +8193,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8306,7 +8306,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -8321,16 +8321,16 @@
         <v>76</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="2">
         <v>2016</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -8369,10 +8369,10 @@
         <v>76</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D93" s="2">
         <v>2017</v>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -2108,7 +2108,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -7121,12 +7121,12 @@
         <f>COUNTIF($D$2:$D$51,"2017")</f>
         <v>6</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>212</v>
+      <c r="D58" t="s">
+        <v>266</v>
       </c>
       <c r="E58">
-        <f>COUNTIF($E$2:$E$51,"*Production*")</f>
-        <v>8</v>
+        <f>COUNTIF($E$2:$E$51,"*Pay*")</f>
+        <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>62</v>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="402">
   <si>
     <t>title</t>
   </si>
@@ -1251,6 +1251,15 @@
   </si>
   <si>
     <t>Jose A. Galindo, Deepak Dhungana, Rick Rabiser, David Benavides, Goetz Botterweck and Paul Grünbacher</t>
+  </si>
+  <si>
+    <t>distributed, centralized</t>
+  </si>
+  <si>
+    <t>distributed (centralized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributed (centralized) </t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1618,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1770,7 +1785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1783,6 +1798,7 @@
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2106,9 +2122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2355,7 @@
         <v>139</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>205</v>
@@ -2428,7 +2444,7 @@
         <v>207</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>234</v>
@@ -2981,8 +2997,8 @@
       <c r="K10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>136</v>
+      <c r="L10" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>225</v>
@@ -3158,7 +3174,7 @@
       <c r="G12" t="s">
         <v>131</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
@@ -3263,7 +3279,7 @@
         <v>153</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>169</v>
@@ -3434,7 +3450,7 @@
         <v>133</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>131</v>
@@ -3446,7 +3462,7 @@
         <v>139</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>178</v>
@@ -3526,7 +3542,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>76</v>
@@ -3621,7 +3637,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>76</v>
@@ -3716,7 +3732,7 @@
         <v>76</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>76</v>
@@ -3822,8 +3838,8 @@
       <c r="K19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>136</v>
+      <c r="L19" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>202</v>
@@ -3912,7 +3928,7 @@
         <v>153</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>136</v>
+        <v>400</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>243</v>
@@ -4090,7 +4106,7 @@
         <v>153</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="M22" t="s">
         <v>155</v>
@@ -4258,7 +4274,7 @@
       <c r="G24" t="s">
         <v>131</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I24" t="s">
@@ -4351,7 +4367,7 @@
         <v>133</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>131</v>
@@ -4544,8 +4560,8 @@
       <c r="K27" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>136</v>
+      <c r="L27" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>225</v>
@@ -4633,8 +4649,8 @@
       <c r="K28" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>136</v>
+      <c r="L28" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>240</v>
@@ -4889,7 +4905,7 @@
         <v>76</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>133</v>
@@ -4901,7 +4917,7 @@
         <v>223</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>269</v>
@@ -4981,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>133</v>
@@ -4993,7 +5009,7 @@
         <v>223</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>269</v>
@@ -5070,7 +5086,7 @@
         <v>76</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>76</v>
@@ -5081,7 +5097,7 @@
       <c r="K33" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="12" t="s">
         <v>282</v>
       </c>
       <c r="M33" t="s">
@@ -5253,7 +5269,7 @@
       <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I35" t="s">
@@ -5907,7 +5923,7 @@
         <v>146</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>136</v>
+        <v>401</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>225</v>
@@ -5986,8 +6002,8 @@
       <c r="G43" t="s">
         <v>133</v>
       </c>
-      <c r="H43" t="s">
-        <v>133</v>
+      <c r="H43" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I43" t="s">
         <v>76</v>
@@ -6171,7 +6187,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>131</v>
@@ -6263,7 +6279,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>131</v>
@@ -6357,7 +6373,7 @@
       <c r="G47" t="s">
         <v>131</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I47" t="s">
@@ -6542,7 +6558,7 @@
         <v>76</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>131</v>
@@ -6634,7 +6650,7 @@
         <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>131</v>
@@ -6859,8 +6875,8 @@
         <v>337</v>
       </c>
       <c r="K54">
-        <f>COUNTIF($K$2:$K$51,"*cloud*")</f>
-        <v>36</v>
+        <f>COUNTIF($K$2:$K$51,"cloud")</f>
+        <v>8</v>
       </c>
       <c r="M54" t="s">
         <v>382</v>
@@ -7192,7 +7208,7 @@
       </c>
       <c r="H59">
         <f>COUNTIF($H$2:$H$51,"-")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>341</v>
@@ -7273,7 +7289,7 @@
       </c>
       <c r="H60">
         <f>COUNTIF($H$2:$H$51,"+")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M60" t="s">
         <v>258</v>
@@ -7337,7 +7353,7 @@
       </c>
       <c r="H61">
         <f>COUNTIF($H$2:$H$51,"x")</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>123</v>
@@ -7398,7 +7414,7 @@
       </c>
       <c r="K62">
         <f>COUNTIF($L$2:$L$51,"*centralized*")</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M62" t="s">
         <v>387</v>
@@ -7439,7 +7455,8 @@
         <v>282</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <f>COUNTIF($L$2:$L$51,"*distributed*")</f>
+        <v>14</v>
       </c>
       <c r="M63" t="s">
         <v>386</v>
@@ -7492,6 +7509,7 @@
         <v>343</v>
       </c>
       <c r="K64">
+        <f>COUNTIF($L$2:$L$51,"*decentralized*")</f>
         <v>1</v>
       </c>
       <c r="M64" t="s">

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="400">
   <si>
     <t>title</t>
   </si>
@@ -800,9 +800,6 @@
     <t>system feature</t>
   </si>
   <si>
-    <t>database separation</t>
-  </si>
-  <si>
     <t>separated databases per tenant</t>
   </si>
   <si>
@@ -1154,9 +1151,6 @@
     <t>parallel variant execution</t>
   </si>
   <si>
-    <t>Firewall</t>
-  </si>
-  <si>
     <t>misuse pattern</t>
   </si>
   <si>
@@ -1172,9 +1166,6 @@
     <t>SSL</t>
   </si>
   <si>
-    <t>separation</t>
-  </si>
-  <si>
     <t>Intel SGX</t>
   </si>
   <si>
@@ -1260,6 +1251,9 @@
   </si>
   <si>
     <t xml:space="preserve">distributed (centralized) </t>
+  </si>
+  <si>
+    <t>database isolation</t>
   </si>
 </sst>
 </file>
@@ -2122,9 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z75" sqref="Z75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2150,7 @@
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>61</v>
@@ -2210,7 +2204,7 @@
         <v>128</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>104</v>
@@ -2242,7 +2236,7 @@
         <v>2013</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>174</v>
@@ -2334,10 +2328,10 @@
         <v>2013</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>131</v>
@@ -2355,7 +2349,7 @@
         <v>139</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>205</v>
@@ -2423,10 +2417,10 @@
         <v>2013</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>131</v>
@@ -2444,7 +2438,7 @@
         <v>207</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>234</v>
@@ -2607,10 +2601,10 @@
         <v>2014</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>131</v>
@@ -2796,10 +2790,10 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>131</v>
@@ -2820,7 +2814,7 @@
         <v>136</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>163</v>
@@ -2879,7 +2873,7 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
@@ -2888,10 +2882,10 @@
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>131</v>
@@ -2912,7 +2906,7 @@
         <v>136</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>163</v>
@@ -2945,7 +2939,7 @@
         <v>164</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y9" s="5" t="s">
         <v>145</v>
@@ -2954,7 +2948,7 @@
         <v>196</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>131</v>
@@ -2998,7 +2992,7 @@
         <v>139</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>225</v>
@@ -3049,7 +3043,7 @@
         <v>131</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -3098,7 +3092,7 @@
         <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>163</v>
@@ -3128,10 +3122,10 @@
         <v>182</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y11" s="5" t="s">
         <v>138</v>
@@ -3146,10 +3140,10 @@
         <v>76</v>
       </c>
       <c r="AC11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3166,10 +3160,10 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
         <v>131</v>
@@ -3279,7 +3273,7 @@
         <v>153</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>169</v>
@@ -3352,10 +3346,10 @@
         <v>2015</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>131</v>
@@ -3432,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
         <v>125</v>
@@ -3462,7 +3456,7 @@
         <v>139</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>178</v>
@@ -3590,7 +3584,7 @@
         <v>186</v>
       </c>
       <c r="X16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Y16" t="s">
         <v>158</v>
@@ -3780,7 +3774,7 @@
         <v>164</v>
       </c>
       <c r="X18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Y18" t="s">
         <v>158</v>
@@ -3818,10 +3812,10 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>131</v>
@@ -3839,7 +3833,7 @@
         <v>139</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>202</v>
@@ -3884,7 +3878,7 @@
         <v>165</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>76</v>
@@ -3928,7 +3922,7 @@
         <v>153</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>243</v>
@@ -3976,7 +3970,7 @@
         <v>131</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD20" t="s">
         <v>246</v>
@@ -4106,7 +4100,7 @@
         <v>153</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M22" t="s">
         <v>155</v>
@@ -4148,7 +4142,7 @@
         <v>138</v>
       </c>
       <c r="Z22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA22" s="5" t="s">
         <v>131</v>
@@ -4165,10 +4159,10 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D23">
         <v>2015</v>
@@ -4198,7 +4192,7 @@
         <v>136</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>163</v>
@@ -4225,7 +4219,7 @@
         <v>131</v>
       </c>
       <c r="V23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>203</v>
@@ -4246,10 +4240,10 @@
         <v>131</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4266,10 +4260,10 @@
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G24" t="s">
         <v>131</v>
@@ -4317,7 +4311,7 @@
         <v>131</v>
       </c>
       <c r="V24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W24" t="s">
         <v>131</v>
@@ -4447,10 +4441,10 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>131</v>
@@ -4561,7 +4555,7 @@
         <v>223</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>225</v>
@@ -4606,7 +4600,7 @@
         <v>165</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>131</v>
@@ -4650,7 +4644,7 @@
         <v>223</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>240</v>
@@ -4695,7 +4689,7 @@
         <v>196</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB28" s="5" t="s">
         <v>133</v>
@@ -4718,10 +4712,10 @@
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>131</v>
@@ -4742,7 +4736,7 @@
         <v>136</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>163</v>
@@ -4775,13 +4769,13 @@
         <v>164</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y29" s="5" t="s">
         <v>145</v>
       </c>
       <c r="Z29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA29" s="6" t="s">
         <v>217</v>
@@ -4807,10 +4801,10 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>131</v>
@@ -4831,7 +4825,7 @@
         <v>136</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>163</v>
@@ -4861,7 +4855,7 @@
         <v>230</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>131</v>
@@ -4870,7 +4864,7 @@
         <v>145</v>
       </c>
       <c r="Z30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA30" s="5" t="s">
         <v>131</v>
@@ -4896,10 +4890,10 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>76</v>
@@ -4917,16 +4911,16 @@
         <v>223</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>163</v>
       </c>
       <c r="O31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>76</v>
@@ -4950,28 +4944,28 @@
         <v>204</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y31" s="5" t="s">
         <v>145</v>
       </c>
       <c r="Z31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB31" s="5" t="s">
         <v>131</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -4988,10 +4982,10 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
@@ -5009,10 +5003,10 @@
         <v>223</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>163</v>
@@ -5042,10 +5036,10 @@
         <v>204</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y32" s="5" t="s">
         <v>145</v>
@@ -5054,13 +5048,13 @@
         <v>165</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB32" s="5" t="s">
         <v>131</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -5095,13 +5089,13 @@
         <v>131</v>
       </c>
       <c r="K33" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="s">
         <v>283</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="M33" t="s">
-        <v>284</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>163</v>
@@ -5131,10 +5125,10 @@
         <v>204</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X33" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y33" s="5" t="s">
         <v>158</v>
@@ -5152,10 +5146,10 @@
         <v>131</v>
       </c>
       <c r="AD33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -5163,10 +5157,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D34">
         <v>2016</v>
@@ -5196,7 +5190,7 @@
         <v>136</v>
       </c>
       <c r="M34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>163</v>
@@ -5235,7 +5229,7 @@
         <v>145</v>
       </c>
       <c r="Z34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>131</v>
@@ -5244,7 +5238,7 @@
         <v>131</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -5445,7 +5439,7 @@
         <v>2017</v>
       </c>
       <c r="E37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
         <v>233</v>
@@ -5511,7 +5505,7 @@
         <v>165</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB37" s="5" t="s">
         <v>133</v>
@@ -5528,7 +5522,7 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -5537,10 +5531,10 @@
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>131</v>
@@ -5561,7 +5555,7 @@
         <v>136</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>163</v>
@@ -5594,7 +5588,7 @@
         <v>164</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>248</v>
+        <v>399</v>
       </c>
       <c r="Y38" s="5" t="s">
         <v>138</v>
@@ -5603,7 +5597,7 @@
         <v>196</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB38" s="5" t="s">
         <v>133</v>
@@ -5612,7 +5606,7 @@
         <v>131</v>
       </c>
       <c r="AD38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -5629,10 +5623,10 @@
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>131</v>
@@ -5653,7 +5647,7 @@
         <v>136</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>163</v>
@@ -5686,7 +5680,7 @@
         <v>131</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y39" s="5" t="s">
         <v>145</v>
@@ -5701,10 +5695,10 @@
         <v>76</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5712,10 +5706,10 @@
         <v>76</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D40">
         <v>2017</v>
@@ -5751,7 +5745,7 @@
         <v>163</v>
       </c>
       <c r="O40" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>131</v>
@@ -5775,7 +5769,7 @@
         <v>244</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="X40" s="5" t="s">
         <v>177</v>
@@ -5793,10 +5787,10 @@
         <v>131</v>
       </c>
       <c r="AC40" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -5923,7 +5917,7 @@
         <v>146</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>225</v>
@@ -5997,7 +5991,7 @@
         <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
         <v>133</v>
@@ -6202,13 +6196,13 @@
         <v>136</v>
       </c>
       <c r="M45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>143</v>
       </c>
       <c r="O45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>133</v>
@@ -6232,7 +6226,7 @@
         <v>244</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X45" s="5" t="s">
         <v>131</v>
@@ -6253,7 +6247,7 @@
         <v>131</v>
       </c>
       <c r="AD45" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -6261,19 +6255,19 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>76</v>
@@ -6324,16 +6318,16 @@
         <v>244</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y46" s="5" t="s">
         <v>145</v>
       </c>
       <c r="Z46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA46" s="5" t="s">
         <v>217</v>
@@ -6342,13 +6336,13 @@
         <v>76</v>
       </c>
       <c r="AC46" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE46" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="AD46" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE46" s="8" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -6365,10 +6359,10 @@
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G47" t="s">
         <v>131</v>
@@ -6419,7 +6413,7 @@
         <v>244</v>
       </c>
       <c r="W47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X47" t="s">
         <v>131</v>
@@ -6511,7 +6505,7 @@
         <v>131</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y48" s="5" t="s">
         <v>145</v>
@@ -6529,10 +6523,10 @@
         <v>160</v>
       </c>
       <c r="AD48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6540,10 +6534,10 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D49">
         <v>2020</v>
@@ -6573,7 +6567,7 @@
         <v>136</v>
       </c>
       <c r="M49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>163</v>
@@ -6603,16 +6597,16 @@
         <v>244</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y49" s="5" t="s">
         <v>145</v>
       </c>
       <c r="Z49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA49" s="5" t="s">
         <v>217</v>
@@ -6621,10 +6615,10 @@
         <v>131</v>
       </c>
       <c r="AC49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6665,13 +6659,13 @@
         <v>136</v>
       </c>
       <c r="M50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>163</v>
       </c>
       <c r="O50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>76</v>
@@ -6695,16 +6689,16 @@
         <v>230</v>
       </c>
       <c r="W50" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="X50" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="Y50" s="5" t="s">
         <v>138</v>
       </c>
       <c r="Z50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA50" s="6" t="s">
         <v>217</v>
@@ -6713,13 +6707,13 @@
         <v>131</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE50" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -6760,7 +6754,7 @@
         <v>136</v>
       </c>
       <c r="M51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>163</v>
@@ -6811,12 +6805,12 @@
         <v>131</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>63</v>
@@ -6828,7 +6822,7 @@
         <v>74</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>69</v>
@@ -6840,10 +6834,10 @@
         <v>127</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>67</v>
@@ -6858,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E54">
         <f>COUNTIF($E$2:$E$51,"*Administration and Management*")</f>
@@ -6872,14 +6866,14 @@
         <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K54">
         <f>COUNTIF($K$2:$K$51,"cloud")</f>
         <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N54">
         <f>COUNTIF($M$2:$M$51,"*code*")</f>
@@ -6900,7 +6894,7 @@
         <v>14</v>
       </c>
       <c r="V54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W54">
         <f>COUNTIF($V$2:$V$51,"*non-functional requirement*")</f>
@@ -6951,14 +6945,14 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K55">
         <f>COUNTIF($K$2:$K$51,"*database*")</f>
         <v>31</v>
       </c>
       <c r="M55" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N55">
         <v>5</v>
@@ -6985,7 +6979,7 @@
         <v>7</v>
       </c>
       <c r="Y55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z55">
         <f>COUNTIF($X$2:$X$51,"*signature*")</f>
@@ -7015,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E56">
         <f>COUNTIF($E$2:$E$51,"*Retail*")</f>
@@ -7029,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K56">
         <f>COUNTIF($K$2:$K$51,"*SaaS*")</f>
@@ -7094,21 +7088,21 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57">
         <f>COUNTIF($E$2:$E$51,"*Webapplication*")</f>
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K57">
         <f>COUNTIF($K$2:$K$51,"*cloud, database*")</f>
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N57">
         <f>COUNTIF($M$2:$M$51,"*variability model*")</f>
@@ -7122,11 +7116,11 @@
         <v>7</v>
       </c>
       <c r="Y57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z57">
         <f>COUNTIF($X$2:$X$51,"*isolation*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
@@ -7138,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E58">
         <f>COUNTIF($E$2:$E$51,"*Pay*")</f>
@@ -7148,14 +7142,14 @@
         <v>62</v>
       </c>
       <c r="J58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K58">
         <f>COUNTIF($K$2:$K$51,"*fog, database*")</f>
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N58">
         <f>COUNTIF($M$2:$M$51,"*variant*")</f>
@@ -7175,14 +7169,14 @@
         <v>6</v>
       </c>
       <c r="Y58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z58">
         <f>COUNTIF($X$2:$X$51,"*varia*")</f>
         <v>1</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>68</v>
@@ -7211,14 +7205,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K59">
         <f>COUNTIF($K$2:$K$51,"*cloud, database, SaaS*")</f>
         <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -7245,7 +7239,7 @@
         <v>4</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="Z59">
         <f>COUNTIF($X$2:$X$51,"*firewall*")</f>
@@ -7259,7 +7253,7 @@
         <v>6</v>
       </c>
       <c r="AE59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF59">
         <f>COUNTIF($AC$2:$AC$51,"*IDE*")</f>
@@ -7278,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E60">
         <f>COUNTIF($E$2:$E$51,"*Other*")</f>
@@ -7292,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N60">
         <f>COUNTIF($M$2:$M$51,"*plug*")</f>
@@ -7313,27 +7307,27 @@
         <v>11</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W60">
         <v>20</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Z60">
         <f>COUNTIF($X$2:$X$51,"*misuse*")</f>
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC60">
         <f>COUNTIF($Z$2:$Z$51,"mapping")</f>
         <v>2</v>
       </c>
       <c r="AE60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF60">
         <f>COUNTIF($AC$2:$AC$51,"pure*")</f>
@@ -7359,7 +7353,7 @@
         <v>123</v>
       </c>
       <c r="M61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N61">
         <f>COUNTIF($M$2:$M$51,"*user*")</f>
@@ -7380,7 +7374,7 @@
         <v>6</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z61">
         <f>COUNTIF($X$2:$X$51,"*model*")</f>
@@ -7417,7 +7411,7 @@
         <v>44</v>
       </c>
       <c r="M62" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N62">
         <f>COUNTIF($M$2:$M$51,"*meta*")</f>
@@ -7427,11 +7421,10 @@
         <v>128</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z62">
-        <f>COUNTIF($X$2:$X$51,"*separation*")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB62" t="s">
         <v>196</v>
@@ -7441,7 +7434,7 @@
         <v>20</v>
       </c>
       <c r="AE62" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -7449,17 +7442,17 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K63">
         <f>COUNTIF($L$2:$L$51,"*distributed*")</f>
         <v>14</v>
       </c>
       <c r="M63" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -7477,21 +7470,15 @@
         <f>COUNTIF($W$2:$W$51,"*privacy*")</f>
         <v>17</v>
       </c>
-      <c r="Y63" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z63">
-        <v>7</v>
-      </c>
       <c r="AB63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC63">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping*")</f>
         <v>15</v>
       </c>
       <c r="AE63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF63">
         <v>8</v>
@@ -7506,14 +7493,14 @@
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K64">
         <f>COUNTIF($L$2:$L$51,"*decentralized*")</f>
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N64">
         <f>COUNTIF($M$2:$M$51,"*patch*")</f>
@@ -7534,7 +7521,7 @@
         <v>41</v>
       </c>
       <c r="V64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W64">
         <f>COUNTIF($W$2:$W$51,"*access*")</f>
@@ -7592,7 +7579,7 @@
         <v>6</v>
       </c>
       <c r="Y65" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Z65">
         <f>COUNTIF($X$2:$X$51,"*SSH*")</f>
@@ -7622,21 +7609,21 @@
         <v>3</v>
       </c>
       <c r="V66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W66">
         <f>COUNTIF($W$2:$W$51,"*variability*")</f>
         <v>9</v>
       </c>
       <c r="Y66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z66">
         <f>COUNTIF($X$2:$X$51,"*TLS*")</f>
         <v>3</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AC66"/>
       <c r="AK66"/>
@@ -7645,25 +7632,25 @@
     </row>
     <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N67"/>
       <c r="V67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W67">
         <f>COUNTIF($W$2:$W$51,"*hardware*")</f>
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Z67">
         <f>COUNTIF($X$2:$X$51,"*SSL*")</f>
         <v>4</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AC67">
         <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
@@ -7686,14 +7673,14 @@
         <v>50</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W68">
         <f>COUNTIF($W$2:$W$51,"*manipulation*")</f>
         <v>2</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Z68">
         <f>COUNTIF($X$2:$X$51,"*SGX*")</f>
@@ -7723,21 +7710,21 @@
         <v>40</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W69">
         <f>COUNTIF($W$2:$W$51,"*theft*")</f>
         <v>2</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Z69">
         <f>COUNTIF($X$2:$X$51,"*AES*")</f>
         <v>1</v>
       </c>
       <c r="AB69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC69">
         <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
@@ -7753,21 +7740,21 @@
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N70">
         <f>COUNTIF($N$2:$N$51,"*user*")</f>
         <v>41</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W70">
         <f>COUNTIF($W$2:$W$51,"*malware*")</f>
         <v>1</v>
       </c>
       <c r="AB70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC70">
         <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
@@ -7783,18 +7770,21 @@
         <v>28</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N71">
         <v>13</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W71">
         <f>COUNTIF($W$2:$W$51,"*bugs*")</f>
         <v>2</v>
       </c>
+      <c r="Y71" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="AB71" t="s">
         <v>135</v>
       </c>
@@ -7805,14 +7795,21 @@
     </row>
     <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V72" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W72">
         <f>COUNTIF($W$2:$W$51,"*maintenance*")</f>
         <v>1</v>
       </c>
+      <c r="Y72" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z72">
+        <f>COUNTIF($Y$2:$Y$51,"software")</f>
+        <v>31</v>
+      </c>
       <c r="AB72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC72">
         <v>18</v>
@@ -7824,31 +7821,45 @@
       </c>
       <c r="N73"/>
       <c r="V73" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W73">
         <f>COUNTIF($W$2:$W$51,"*vulner*")</f>
         <v>2</v>
       </c>
+      <c r="Y73" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z73">
+        <f>COUNTIF($Y$2:$Y$51,"storage")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W74">
         <f>COUNTIF($W$2:$W$51,"*trust*")</f>
         <v>4</v>
       </c>
+      <c r="Y74" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z74">
+        <f>COUNTIF($Y$2:$Y$51,"software, storage")</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N75">
         <v>43</v>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="400">
   <si>
     <t>title</t>
   </si>
@@ -2116,9 +2116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z75" sqref="Z75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -7585,6 +7585,13 @@
         <f>COUNTIF($X$2:$X$51,"*SSH*")</f>
         <v>2</v>
       </c>
+      <c r="AB65" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC65">
+        <f>COUNTIF($Z$2:$Z$51,"*problem-space*")</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="66" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
@@ -7622,10 +7629,13 @@
         <f>COUNTIF($X$2:$X$51,"*TLS*")</f>
         <v>3</v>
       </c>
-      <c r="AB66" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AC66"/>
+      <c r="AB66" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC66">
+        <f>COUNTIF($Z$2:$Z$51,"*mapping*")</f>
+        <v>28</v>
+      </c>
       <c r="AK66"/>
       <c r="AL66"/>
       <c r="AM66"/>
@@ -7649,12 +7659,12 @@
         <f>COUNTIF($X$2:$X$51,"*SSL*")</f>
         <v>4</v>
       </c>
-      <c r="AB67" s="5" t="s">
-        <v>377</v>
+      <c r="AB67" t="s">
+        <v>165</v>
       </c>
       <c r="AC67">
-        <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
-        <v>0</v>
+        <f>COUNTIF($Z$2:$Z$51,"solution-space")</f>
+        <v>16</v>
       </c>
       <c r="AK67"/>
       <c r="AL67"/>
@@ -7686,13 +7696,6 @@
         <f>COUNTIF($X$2:$X$51,"*SGX*")</f>
         <v>2</v>
       </c>
-      <c r="AB68" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC68">
-        <f>COUNTIF($AA$2:$AA$51,"product-based")</f>
-        <v>17</v>
-      </c>
     </row>
     <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
@@ -7723,13 +7726,10 @@
         <f>COUNTIF($X$2:$X$51,"*AES*")</f>
         <v>1</v>
       </c>
-      <c r="AB69" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC69">
-        <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
-        <v>1</v>
-      </c>
+      <c r="AB69" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC69"/>
     </row>
     <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
@@ -7753,12 +7753,12 @@
         <f>COUNTIF($W$2:$W$51,"*malware*")</f>
         <v>1</v>
       </c>
-      <c r="AB70" t="s">
-        <v>256</v>
+      <c r="AB70" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="AC70">
-        <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
-        <v>7</v>
+        <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7786,11 +7786,11 @@
         <v>394</v>
       </c>
       <c r="AB71" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="AC71">
-        <f>COUNTIF($AA$2:$AA$51,"-")</f>
-        <v>25</v>
+        <f>COUNTIF($AA$2:$AA$51,"product-based")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7809,10 +7809,11 @@
         <v>31</v>
       </c>
       <c r="AB72" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="AC72">
-        <v>18</v>
+        <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7834,6 +7835,13 @@
         <f>COUNTIF($Y$2:$Y$51,"storage")</f>
         <v>8</v>
       </c>
+      <c r="AB73" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC73">
+        <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
@@ -7856,6 +7864,13 @@
         <f>COUNTIF($Y$2:$Y$51,"software, storage")</f>
         <v>11</v>
       </c>
+      <c r="AB74" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC74">
+        <f>COUNTIF($AA$2:$AA$51,"-")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
@@ -7863,6 +7878,12 @@
       </c>
       <c r="N75">
         <v>43</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC75">
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="400">
   <si>
     <t>title</t>
   </si>
@@ -2117,8 +2117,8 @@
   <dimension ref="A1:AP93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -3444,7 +3444,7 @@
         <v>133</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>131</v>
@@ -3536,7 +3536,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>76</v>
@@ -3631,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>76</v>
@@ -3726,7 +3726,7 @@
         <v>76</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>76</v>
@@ -4361,7 +4361,7 @@
         <v>133</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>131</v>
@@ -4899,7 +4899,7 @@
         <v>76</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>133</v>
@@ -4991,7 +4991,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>133</v>
@@ -5080,7 +5080,7 @@
         <v>76</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>76</v>
@@ -5997,7 +5997,7 @@
         <v>133</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
         <v>76</v>
@@ -6181,7 +6181,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>131</v>
@@ -6273,7 +6273,7 @@
         <v>76</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>131</v>
@@ -6552,7 +6552,7 @@
         <v>76</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>131</v>
@@ -6644,7 +6644,7 @@
         <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>131</v>
@@ -6837,7 +6837,7 @@
         <v>394</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>67</v>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="H59">
         <f>COUNTIF($H$2:$H$51,"-")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J59" t="s">
         <v>340</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="H60">
         <f>COUNTIF($H$2:$H$51,"+")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="s">
         <v>257</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="H61">
         <f>COUNTIF($H$2:$H$51,"x")</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>123</v>
@@ -7782,9 +7782,7 @@
         <f>COUNTIF($W$2:$W$51,"*bugs*")</f>
         <v>2</v>
       </c>
-      <c r="Y71" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="Y71" s="1"/>
       <c r="AB71" t="s">
         <v>217</v>
       </c>
@@ -7801,13 +7799,8 @@
         <f>COUNTIF($W$2:$W$51,"*maintenance*")</f>
         <v>1</v>
       </c>
-      <c r="Y72" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z72">
-        <f>COUNTIF($Y$2:$Y$51,"software")</f>
-        <v>31</v>
-      </c>
+      <c r="Y72"/>
+      <c r="Z72"/>
       <c r="AB72" t="s">
         <v>255</v>
       </c>
@@ -7828,13 +7821,8 @@
         <f>COUNTIF($W$2:$W$51,"*vulner*")</f>
         <v>2</v>
       </c>
-      <c r="Y73" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z73">
-        <f>COUNTIF($Y$2:$Y$51,"storage")</f>
-        <v>8</v>
-      </c>
+      <c r="Y73"/>
+      <c r="Z73"/>
       <c r="AB73" t="s">
         <v>256</v>
       </c>
@@ -7857,13 +7845,8 @@
         <f>COUNTIF($W$2:$W$51,"*trust*")</f>
         <v>4</v>
       </c>
-      <c r="Y74" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z74">
-        <f>COUNTIF($Y$2:$Y$51,"software, storage")</f>
-        <v>11</v>
-      </c>
+      <c r="Y74"/>
+      <c r="Z74"/>
       <c r="AB74" t="s">
         <v>135</v>
       </c>

--- a/src/analysis_SPLC22.xlsx
+++ b/src/analysis_SPLC22.xlsx
@@ -399,9 +399,6 @@
     <t>Dimitri Van Landuyt, Stefan Walraven,  Wouter Joosen</t>
   </si>
   <si>
-    <t>("software as a service" OR "SaaS" OR "infrastructure as a service" OR "IaaS" OR "service-based" OR "service-oriented" OR "on-demand" OR "stor*" OR "cloud" OR "database" OR "warehouse" OR "blockchain" OR "edge" OR "fog") AND ("software product line" OR "SPL" OR "product famil*" OR "system famil*" OR “software famil*” OR "variant*rich" OR "config* system") AND ("security" OR "secure")</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -1254,6 +1251,9 @@
   </si>
   <si>
     <t>database isolation</t>
+  </si>
+  <si>
+    <t>("software as a service" OR "SaaS" OR "infrastructure as a service" OR "IaaS" OR "service-based" OR "service-oriented" OR "on-demand" OR "stor*" OR "cloud" OR "database" OR "blockchain" OR "edge" OR "fog") AND ("software product line" OR "product famil*" OR "system famil*" OR “software famil*” OR "variant*rich" OR "config* system") AND ("security" OR "secure")</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2117,8 @@
   <dimension ref="A1:AP93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2150,7 @@
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>61</v>
@@ -2162,19 +2162,19 @@
         <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>64</v>
@@ -2195,16 +2195,16 @@
         <v>73</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>104</v>
@@ -2236,13 +2236,13 @@
         <v>2013</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>76</v>
@@ -2251,67 +2251,67 @@
         <v>76</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" t="s">
         <v>172</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -2328,79 +2328,79 @@
         <v>2013</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -2417,82 +2417,82 @@
         <v>2013</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" t="s">
         <v>234</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>235</v>
-      </c>
       <c r="AD4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -2509,82 +2509,82 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="X5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="X5" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -2601,13 +2601,13 @@
         <v>2014</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>76</v>
@@ -2616,67 +2616,67 @@
         <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="AD6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -2693,13 +2693,13 @@
         <v>2014</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>76</v>
@@ -2708,67 +2708,67 @@
         <v>76</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X7" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
@@ -2790,13 +2790,13 @@
         <v>2014</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>76</v>
@@ -2805,67 +2805,67 @@
         <v>76</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD8" t="s">
         <v>245</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
@@ -2882,79 +2882,79 @@
         <v>2014</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O9" t="s">
-        <v>131</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2971,79 +2971,79 @@
         <v>2014</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -3068,82 +3068,82 @@
         <v>2014</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -3160,82 +3160,82 @@
         <v>2015</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" t="s">
+        <v>132</v>
+      </c>
+      <c r="T12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W12" t="s">
         <v>163</v>
       </c>
-      <c r="O12" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>131</v>
-      </c>
-      <c r="R12" t="s">
-        <v>131</v>
-      </c>
-      <c r="S12" t="s">
-        <v>133</v>
-      </c>
-      <c r="T12" t="s">
-        <v>131</v>
-      </c>
-      <c r="U12" t="s">
-        <v>131</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" t="s">
         <v>164</v>
       </c>
-      <c r="X12" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AA12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s">
         <v>165</v>
       </c>
-      <c r="AA12" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>166</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -3252,82 +3252,82 @@
         <v>2015</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -3346,79 +3346,79 @@
         <v>2015</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="X14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="X14" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="AA14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -3426,91 +3426,91 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X15" t="s">
         <v>182</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="X15" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3527,85 +3527,85 @@
         <v>2015</v>
       </c>
       <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y16" t="s">
         <v>157</v>
       </c>
-      <c r="F16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="X16" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>158</v>
-      </c>
       <c r="Z16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -3616,91 +3616,91 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V17" t="s">
+        <v>192</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y17" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O17" t="s">
-        <v>192</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V17" t="s">
-        <v>193</v>
-      </c>
-      <c r="W17" s="5" t="s">
+      <c r="Z17" t="s">
         <v>195</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE17" t="s">
         <v>197</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -3708,94 +3708,94 @@
         <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
         <v>189</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
       </c>
       <c r="D18">
         <v>2015</v>
       </c>
       <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V18" t="s">
+        <v>192</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y18" t="s">
         <v>157</v>
       </c>
-      <c r="F18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O18" t="s">
-        <v>131</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V18" t="s">
-        <v>193</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="X18" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>158</v>
-      </c>
       <c r="Z18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AE18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -3812,79 +3812,79 @@
         <v>2015</v>
       </c>
       <c r="E19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -3901,13 +3901,13 @@
         <v>2015</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>76</v>
@@ -3916,64 +3916,64 @@
         <v>76</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O20" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -3990,79 +3990,79 @@
         <v>2015</v>
       </c>
       <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" t="s">
-        <v>131</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="Z21" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4079,13 +4079,13 @@
         <v>2015</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>76</v>
@@ -4094,64 +4094,64 @@
         <v>76</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -4159,22 +4159,22 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23">
         <v>2015</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>76</v>
@@ -4183,67 +4183,67 @@
         <v>76</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V23" t="s">
+        <v>316</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="AD23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -4260,82 +4260,82 @@
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
         <v>76</v>
       </c>
       <c r="K24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" t="s">
+        <v>130</v>
+      </c>
+      <c r="P24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>130</v>
+      </c>
+      <c r="R24" t="s">
+        <v>130</v>
+      </c>
+      <c r="S24" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" t="s">
+        <v>130</v>
+      </c>
+      <c r="U24" t="s">
+        <v>130</v>
+      </c>
+      <c r="V24" t="s">
+        <v>347</v>
+      </c>
+      <c r="W24" t="s">
+        <v>130</v>
+      </c>
+      <c r="X24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC24" t="s">
         <v>146</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>131</v>
-      </c>
-      <c r="R24" t="s">
-        <v>131</v>
-      </c>
-      <c r="S24" t="s">
-        <v>131</v>
-      </c>
-      <c r="T24" t="s">
-        <v>131</v>
-      </c>
-      <c r="U24" t="s">
-        <v>131</v>
-      </c>
-      <c r="V24" t="s">
-        <v>348</v>
-      </c>
-      <c r="W24" t="s">
-        <v>131</v>
-      </c>
-      <c r="X24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>147</v>
-      </c>
       <c r="AD24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -4352,79 +4352,79 @@
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -4441,13 +4441,13 @@
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>76</v>
@@ -4456,67 +4456,67 @@
         <v>76</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AD26" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="AE26" s="5"/>
     </row>
@@ -4534,13 +4534,13 @@
         <v>2016</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>76</v>
@@ -4549,28 +4549,28 @@
         <v>76</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>76</v>
@@ -4579,34 +4579,34 @@
         <v>76</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V27" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W27" t="s">
+        <v>205</v>
+      </c>
+      <c r="X27" t="s">
         <v>230</v>
       </c>
-      <c r="W27" t="s">
-        <v>206</v>
-      </c>
-      <c r="X27" t="s">
-        <v>231</v>
-      </c>
       <c r="Y27" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -4623,13 +4623,13 @@
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>76</v>
@@ -4638,64 +4638,64 @@
         <v>76</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M28" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O28" t="s">
-        <v>131</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y28" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -4712,79 +4712,79 @@
         <v>2016</v>
       </c>
       <c r="E29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>130</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V29" t="s">
+        <v>246</v>
+      </c>
+      <c r="W29" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O29" t="s">
-        <v>131</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V29" t="s">
-        <v>247</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z29" t="s">
         <v>260</v>
       </c>
-      <c r="Y29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>261</v>
-      </c>
       <c r="AA29" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -4801,79 +4801,79 @@
         <v>2016</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4890,82 +4890,82 @@
         <v>2016</v>
       </c>
       <c r="E31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" t="s">
         <v>265</v>
       </c>
-      <c r="F31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="5" t="s">
+      <c r="P31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O31" t="s">
-        <v>266</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="X31" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -4982,37 +4982,37 @@
         <v>2016</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>76</v>
@@ -5033,28 +5033,28 @@
         <v>76</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y32" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
@@ -5071,85 +5071,85 @@
         <v>2016</v>
       </c>
       <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="s">
+        <v>282</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="M33" t="s">
-        <v>283</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O33" t="s">
-        <v>131</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="Z33" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
@@ -5157,88 +5157,88 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
@@ -5255,82 +5255,82 @@
         <v>2017</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
       </c>
       <c r="K35" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M35" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O35" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>132</v>
+      </c>
+      <c r="R35" t="s">
+        <v>132</v>
+      </c>
+      <c r="S35" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" t="s">
+        <v>130</v>
+      </c>
+      <c r="U35" t="s">
+        <v>130</v>
+      </c>
+      <c r="V35" t="s">
+        <v>136</v>
+      </c>
+      <c r="W35" t="s">
+        <v>130</v>
+      </c>
+      <c r="X35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s">
         <v>139</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M35" t="s">
-        <v>142</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O35" t="s">
-        <v>131</v>
-      </c>
-      <c r="P35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>133</v>
-      </c>
-      <c r="R35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S35" t="s">
-        <v>131</v>
-      </c>
-      <c r="T35" t="s">
-        <v>131</v>
-      </c>
-      <c r="U35" t="s">
-        <v>131</v>
-      </c>
-      <c r="V35" t="s">
-        <v>137</v>
-      </c>
-      <c r="W35" t="s">
-        <v>131</v>
-      </c>
-      <c r="X35" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>140</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -5347,82 +5347,82 @@
         <v>2017</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M36" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V36" t="s">
+        <v>243</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="X36" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA36" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V36" t="s">
-        <v>244</v>
-      </c>
-      <c r="W36" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="X36" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AB36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD36" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
@@ -5439,13 +5439,13 @@
         <v>2017</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>76</v>
@@ -5454,28 +5454,28 @@
         <v>76</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>76</v>
@@ -5484,37 +5484,37 @@
         <v>76</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W37" t="s">
+        <v>205</v>
+      </c>
+      <c r="X37" t="s">
         <v>230</v>
       </c>
-      <c r="W37" t="s">
-        <v>206</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="Y37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD37" t="s">
         <v>231</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -5531,82 +5531,82 @@
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O38" t="s">
+        <v>130</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W38" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O38" t="s">
-        <v>131</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X38" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
@@ -5623,82 +5623,82 @@
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M39" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA39" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O39" t="s">
-        <v>131</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="X39" s="5" t="s">
+      <c r="AD39" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -5706,22 +5706,22 @@
         <v>76</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>76</v>
@@ -5730,67 +5730,67 @@
         <v>76</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W40" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC40" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="X40" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC40" s="11" t="s">
+      <c r="AD40" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="AD40" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -5807,79 +5807,79 @@
         <v>2018</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N41" t="s">
+        <v>162</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="W41" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="X41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
@@ -5896,82 +5896,82 @@
         <v>2018</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M42" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V42" t="s">
+        <v>192</v>
+      </c>
+      <c r="W42" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V42" t="s">
-        <v>193</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="X42" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD42" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -5988,82 +5988,82 @@
         <v>2019</v>
       </c>
       <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" t="s">
+        <v>154</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O43" t="s">
+        <v>130</v>
+      </c>
+      <c r="P43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>132</v>
+      </c>
+      <c r="U43" t="s">
+        <v>130</v>
+      </c>
+      <c r="V43" t="s">
+        <v>143</v>
+      </c>
+      <c r="W43" t="s">
+        <v>180</v>
+      </c>
+      <c r="X43" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y43" t="s">
         <v>157</v>
       </c>
-      <c r="F43" t="s">
-        <v>329</v>
-      </c>
-      <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" t="s">
-        <v>153</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="Z43" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD43" t="s">
         <v>155</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O43" t="s">
-        <v>131</v>
-      </c>
-      <c r="P43" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>76</v>
-      </c>
-      <c r="R43" t="s">
-        <v>76</v>
-      </c>
-      <c r="S43" t="s">
-        <v>76</v>
-      </c>
-      <c r="T43" t="s">
-        <v>133</v>
-      </c>
-      <c r="U43" t="s">
-        <v>131</v>
-      </c>
-      <c r="V43" t="s">
-        <v>144</v>
-      </c>
-      <c r="W43" t="s">
-        <v>181</v>
-      </c>
-      <c r="X43" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -6080,82 +6080,82 @@
         <v>2019</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M44" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V44" t="s">
+        <v>192</v>
+      </c>
+      <c r="W44" t="s">
         <v>225</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V44" t="s">
-        <v>193</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="X44" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC44" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="X44" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC44" s="5" t="s">
+      <c r="AD44" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="AD44" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -6172,82 +6172,82 @@
         <v>2019</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
+        <v>272</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O45" t="s">
+        <v>271</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V45" t="s">
+        <v>243</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O45" t="s">
-        <v>272</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V45" t="s">
-        <v>244</v>
-      </c>
-      <c r="W45" s="5" t="s">
+      <c r="X45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD45" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD45" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -6255,94 +6255,94 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46" t="s">
+        <v>239</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46" t="s">
+        <v>130</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V46" t="s">
+        <v>243</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD46" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M46" t="s">
-        <v>240</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O46" t="s">
-        <v>131</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V46" t="s">
-        <v>244</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="X46" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y46" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC46" s="5" t="s">
+      <c r="AE46" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="AD46" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE46" s="8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
@@ -6359,79 +6359,79 @@
         <v>2020</v>
       </c>
       <c r="E47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
         <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M47" t="s">
+        <v>160</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="M47" t="s">
-        <v>161</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z47" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC47" t="s">
         <v>159</v>
-      </c>
-      <c r="AA47" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6448,85 +6448,85 @@
         <v>2020</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X48" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD48" t="s">
         <v>276</v>
       </c>
-      <c r="Y48" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB48" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>277</v>
-      </c>
       <c r="AF48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6534,91 +6534,91 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49">
         <v>2020</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s">
+        <v>309</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O49" t="s">
+        <v>130</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="V49" t="s">
+        <v>243</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC49" t="s">
         <v>310</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O49" t="s">
-        <v>131</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V49" t="s">
-        <v>244</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>311</v>
-      </c>
       <c r="AD49" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6635,85 +6635,85 @@
         <v>2021</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s">
+        <v>287</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="O50" t="s">
+        <v>285</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="W50" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O50" t="s">
+      <c r="X50" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE50" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T50" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="V50" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="X50" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA50" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC50" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD50" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE50" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -6730,87 +6730,87 @@
         <v>2021</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="K51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y51" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB51" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>63</v>
@@ -6822,7 +6822,7 @@
         <v>74</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>69</v>
@@ -6831,10 +6831,10 @@
         <v>72</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>104</v>
@@ -6852,70 +6852,70 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E54">
         <f>COUNTIF($E$2:$E$51,"*Administration and Management*")</f>
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H54">
         <f>COUNTIF($G$2:$G$51,"-")</f>
         <v>37</v>
       </c>
       <c r="J54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K54">
         <f>COUNTIF($K$2:$K$51,"cloud")</f>
         <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N54">
         <f>COUNTIF($M$2:$M$51,"*code*")</f>
         <v>14</v>
       </c>
       <c r="P54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q54">
         <f>COUNTIF($P$2:$P$51,"-")</f>
         <v>35</v>
       </c>
       <c r="S54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T54">
         <f>COUNTIF($S$2:$S$51,"-")</f>
         <v>14</v>
       </c>
       <c r="V54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W54">
         <f>COUNTIF($V$2:$V$51,"*non-functional requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z54">
         <f>COUNTIF($X$2:$X$51,"*encryption*")</f>
         <v>19</v>
       </c>
       <c r="AB54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC54">
         <f>COUNTIF($Y$2:$Y$51,"software")</f>
         <v>31</v>
       </c>
       <c r="AE54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF54">
         <f>COUNTIF($AB$2:$AB$51,"-")</f>
@@ -6931,69 +6931,69 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E55">
         <f>COUNTIF($E$2:$E$51,"*Production*")</f>
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55">
         <f>COUNTIF($G$2:$G$51,"+")</f>
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K55">
         <f>COUNTIF($K$2:$K$51,"*database*")</f>
         <v>31</v>
       </c>
       <c r="M55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N55">
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q55">
         <f>COUNTIF($P$2:$P$51,"+")</f>
         <v>9</v>
       </c>
       <c r="S55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T55">
         <f>COUNTIF($S$2:$S$51,"+")</f>
         <v>22</v>
       </c>
       <c r="V55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W55">
         <f>COUNTIF($V$2:$V$51,"*quality*")</f>
         <v>7</v>
       </c>
       <c r="Y55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z55">
         <f>COUNTIF($X$2:$X$51,"*signature*")</f>
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC55">
         <f>COUNTIF($Y$2:$Y$51,"storage")</f>
         <v>8</v>
       </c>
       <c r="AE55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF55">
         <f>COUNTIF($AB$2:$AB$51,"+")</f>
@@ -7009,7 +7009,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E56">
         <f>COUNTIF($E$2:$E$51,"*Retail*")</f>
@@ -7023,14 +7023,14 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K56">
         <f>COUNTIF($K$2:$K$51,"*SaaS*")</f>
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N56">
         <f>COUNTIF($M$2:$M$51,"*feature model*")</f>
@@ -7051,21 +7051,21 @@
         <v>14</v>
       </c>
       <c r="V56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W56">
         <f>COUNTIF($V$2:$V$51,"*system goal*")</f>
         <v>18</v>
       </c>
       <c r="Y56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z56">
         <f>COUNTIF($X$2:$X$51,"*access*")</f>
         <v>18</v>
       </c>
       <c r="AB56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC56">
         <f>COUNTIF($Y$2:$Y$51,"*software, storage*")</f>
@@ -7088,35 +7088,35 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E57">
         <f>COUNTIF($E$2:$E$51,"*Webapplication*")</f>
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K57">
         <f>COUNTIF($K$2:$K$51,"*cloud, database*")</f>
         <v>17</v>
       </c>
       <c r="M57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N57">
         <f>COUNTIF($M$2:$M$51,"*variability model*")</f>
         <v>3</v>
       </c>
       <c r="V57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W57">
         <f>COUNTIF($V$2:$V$51,"*system requirement*")</f>
         <v>7</v>
       </c>
       <c r="Y57" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z57">
         <f>COUNTIF($X$2:$X$51,"*isolation*")</f>
@@ -7132,7 +7132,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E58">
         <f>COUNTIF($E$2:$E$51,"*Pay*")</f>
@@ -7142,14 +7142,14 @@
         <v>62</v>
       </c>
       <c r="J58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K58">
         <f>COUNTIF($K$2:$K$51,"*fog, database*")</f>
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N58">
         <f>COUNTIF($M$2:$M$51,"*variant*")</f>
@@ -7162,21 +7162,21 @@
         <v>73</v>
       </c>
       <c r="V58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W58">
         <f>COUNTIF($V$2:$V$51,"*security goal*")</f>
         <v>6</v>
       </c>
       <c r="Y58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Z58">
         <f>COUNTIF($X$2:$X$51,"*varia*")</f>
         <v>1</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>68</v>
@@ -7191,69 +7191,69 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59">
         <f>COUNTIF($E$2:$E$51,"*unspecificed*")</f>
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H59">
         <f>COUNTIF($H$2:$H$51,"-")</f>
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K59">
         <f>COUNTIF($K$2:$K$51,"*cloud, database, SaaS*")</f>
         <v>13</v>
       </c>
       <c r="M59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N59">
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q59">
         <f>COUNTIF($Q$2:$Q$51,"-")</f>
         <v>36</v>
       </c>
       <c r="S59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T59">
         <f>COUNTIF($T$2:$T$51,"-")</f>
         <v>33</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W59">
         <f>COUNTIF($V$2:$V$51,"*system feature*")</f>
         <v>4</v>
       </c>
       <c r="Y59" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Z59">
         <f>COUNTIF($X$2:$X$51,"*firewall*")</f>
         <v>4</v>
       </c>
       <c r="AB59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC59">
         <f>COUNTIF($Z$2:$Z$51,"problem-space")</f>
         <v>6</v>
       </c>
       <c r="AE59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF59">
         <f>COUNTIF($AC$2:$AC$51,"*IDE*")</f>
@@ -7272,62 +7272,62 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E60">
         <f>COUNTIF($E$2:$E$51,"*Other*")</f>
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H60">
         <f>COUNTIF($H$2:$H$51,"+")</f>
         <v>3</v>
       </c>
       <c r="M60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N60">
         <f>COUNTIF($M$2:$M$51,"*plug*")</f>
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q60">
         <f>COUNTIF($Q$2:$Q$51,"+")</f>
         <v>3</v>
       </c>
       <c r="S60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T60">
         <f>COUNTIF($T$2:$T$51,"+")</f>
         <v>11</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W60">
         <v>20</v>
       </c>
       <c r="Y60" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z60">
         <f>COUNTIF($X$2:$X$51,"*misuse*")</f>
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC60">
         <f>COUNTIF($Z$2:$Z$51,"mapping")</f>
         <v>2</v>
       </c>
       <c r="AE60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF60">
         <f>COUNTIF($AC$2:$AC$51,"pure*")</f>
@@ -7350,10 +7350,10 @@
         <v>37</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N61">
         <f>COUNTIF($M$2:$M$51,"*user*")</f>
@@ -7374,21 +7374,21 @@
         <v>6</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z61">
         <f>COUNTIF($X$2:$X$51,"*model*")</f>
         <v>1</v>
       </c>
       <c r="AB61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC61">
         <f>COUNTIF($Z$2:$Z$51,"solution-space")</f>
         <v>16</v>
       </c>
       <c r="AE61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF61">
         <f>COUNTIF($AC$2:$AC$51,"*UML*")</f>
@@ -7404,37 +7404,37 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K62">
         <f>COUNTIF($L$2:$L$51,"*centralized*")</f>
         <v>44</v>
       </c>
       <c r="M62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N62">
         <f>COUNTIF($M$2:$M$51,"*meta*")</f>
         <v>3</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z62">
         <v>7</v>
       </c>
       <c r="AB62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC62">
         <f>COUNTIF($Z$2:$Z$51,"*mapping, solution-space*")</f>
         <v>20</v>
       </c>
       <c r="AE62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF62">
         <v>5</v>
@@ -7442,17 +7442,17 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G63" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K63">
         <f>COUNTIF($L$2:$L$51,"*distributed*")</f>
         <v>14</v>
       </c>
       <c r="M63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -7461,24 +7461,24 @@
         <v>71</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W63">
         <f>COUNTIF($W$2:$W$51,"*privacy*")</f>
         <v>17</v>
       </c>
       <c r="AB63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC63">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping*")</f>
         <v>15</v>
       </c>
       <c r="AE63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF63">
         <v>8</v>
@@ -7486,49 +7486,49 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H64">
         <f>COUNTIF($I$2:$I$51,"-")</f>
         <v>28</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K64">
         <f>COUNTIF($L$2:$L$51,"*decentralized*")</f>
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N64">
         <f>COUNTIF($M$2:$M$51,"*patch*")</f>
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q64">
         <f>COUNTIF($R$2:$R$51,"-")</f>
         <v>12</v>
       </c>
       <c r="S64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T64">
         <f>COUNTIF($U$2:$U$51,"-")</f>
         <v>41</v>
       </c>
       <c r="V64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W64">
         <f>COUNTIF($W$2:$W$51,"*access*")</f>
         <v>23</v>
       </c>
       <c r="AB64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC64">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space, mapping, solution-space*")</f>
@@ -7537,56 +7537,56 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H65">
         <f>COUNTIF($I$2:$I$51,"+")</f>
         <v>4</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65">
         <f>COUNTIF($L$2:$L$51,"-")</f>
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N65">
         <f>COUNTIF($M$2:$M$51,"*unspecified*")</f>
         <v>4</v>
       </c>
       <c r="P65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q65">
         <f>COUNTIF($R$2:$R$51,"+")</f>
         <v>20</v>
       </c>
       <c r="S65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T65">
         <f>COUNTIF($U$2:$U$51,"+")</f>
         <v>6</v>
       </c>
       <c r="V65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W65">
         <f>COUNTIF($W$2:$W$51,"*communication*")</f>
         <v>6</v>
       </c>
       <c r="Y65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z65">
         <f>COUNTIF($X$2:$X$51,"*SSH*")</f>
         <v>2</v>
       </c>
       <c r="AB65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC65">
         <f>COUNTIF($Z$2:$Z$51,"*problem-space*")</f>
@@ -7616,21 +7616,21 @@
         <v>3</v>
       </c>
       <c r="V66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W66">
         <f>COUNTIF($W$2:$W$51,"*variability*")</f>
         <v>9</v>
       </c>
       <c r="Y66" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z66">
         <f>COUNTIF($X$2:$X$51,"*TLS*")</f>
         <v>3</v>
       </c>
       <c r="AB66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC66">
         <f>COUNTIF($Z$2:$Z$51,"*mapping*")</f>
@@ -7642,25 +7642,25 @@
     </row>
     <row r="67" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N67"/>
       <c r="V67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W67">
         <f>COUNTIF($W$2:$W$51,"*hardware*")</f>
         <v>1</v>
       </c>
       <c r="Y67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z67">
         <f>COUNTIF($X$2:$X$51,"*SSL*")</f>
         <v>4</v>
       </c>
       <c r="AB67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC67">
         <f>COUNTIF($Z$2:$Z$51,"solution-space")</f>
@@ -7672,25 +7672,25 @@
     </row>
     <row r="68" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H68"/>
       <c r="M68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N68">
         <f>COUNTIF($N$2:$N$51,"*system*")</f>
         <v>50</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W68">
         <f>COUNTIF($W$2:$W$51,"*manipulation*")</f>
         <v>2</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z68">
         <f>COUNTIF($X$2:$X$51,"*SGX*")</f>
@@ -7699,62 +7699,62 @@
     </row>
     <row r="69" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H69">
         <f>COUNTIF($J$2:$J$51,"-")</f>
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N69">
         <f>COUNTIF($N$2:$N$51,"*system, user*")</f>
         <v>40</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W69">
         <f>COUNTIF($W$2:$W$51,"*theft*")</f>
         <v>2</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z69">
         <f>COUNTIF($X$2:$X$51,"*AES*")</f>
         <v>1</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC69"/>
     </row>
     <row r="70" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H70">
         <f>COUNTIF($J$2:$J$51,"+")</f>
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N70">
         <f>COUNTIF($N$2:$N$51,"*user*")</f>
         <v>41</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W70">
         <f>COUNTIF($W$2:$W$51,"*malware*")</f>
         <v>1</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC70">
         <f>COUNTIF($AA$2:$AA$51,"feature-based")</f>
@@ -7770,13 +7770,13 @@
         <v>28</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N71">
         <v>13</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W71">
         <f>COUNTIF($W$2:$W$51,"*bugs*")</f>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="Y71" s="1"/>
       <c r="AB71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AC71">
         <f>COUNTIF($AA$2:$AA$51,"product-based")</f>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="72" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="V72" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W72">
         <f>COUNTIF($W$2:$W$51,"*maintenance*")</f>
@@ -7802,7 +7802,7 @@
       <c r="Y72"/>
       <c r="Z72"/>
       <c r="AB72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC72">
         <f>COUNTIF($AA$2:$AA$51,"family-based")</f>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="N73"/>
       <c r="V73" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W73">
         <f>COUNTIF($W$2:$W$51,"*vulner*")</f>
@@ -7824,7 +7824,7 @@
       <c r="Y73"/>
       <c r="Z73"/>
       <c r="AB73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC73">
         <f>COUNTIF($AA$2:$AA$51,"*technical*")</f>
@@ -7833,13 +7833,13 @@
     </row>
     <row r="74" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N74">
         <v>6</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W74">
         <f>COUNTIF($W$2:$W$51,"*trust*")</f>
@@ -7848,7 +7848,7 @@
       <c r="Y74"/>
       <c r="Z74"/>
       <c r="AB74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC74">
         <f>COUNTIF($AA$2:$AA$51,"-")</f>
@@ -7857,13 +7857,13 @@
     </row>
     <row r="75" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N75">
         <v>43</v>
       </c>
       <c r="AB75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC75">
         <v>18</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AK78" s="5"/>
       <c r="AL78" s="5"/>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
@@ -7905,23 +7905,23 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
         <v>76</v>
@@ -7950,7 +7950,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -7959,13 +7959,13 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W84" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
@@ -8001,10 +8001,10 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -8095,7 +8095,7 @@
         <v>2016</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -8145,7 +8145,7 @@
         <v>2016</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -8156,46 +8156,46 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W88" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="W88" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="X88" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
@@ -8226,7 +8226,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8339,7 +8339,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -8363,7 +8363,7 @@
         <v>2016</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
